--- a/Projects/CCKH_SAND/Data/Template.xlsx
+++ b/Projects/CCKH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,183 +31,183 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="181">
   <si>
-    <t>Store Type</t>
+    <t xml:space="preserve">Store Type</t>
   </si>
   <si>
-    <t>Region</t>
+    <t xml:space="preserve">Region</t>
   </si>
   <si>
-    <t>Translation</t>
+    <t xml:space="preserve">Translation</t>
   </si>
   <si>
-    <t>KPI Name</t>
+    <t xml:space="preserve">KPI Name</t>
   </si>
   <si>
-    <t>KPI Group</t>
+    <t xml:space="preserve">KPI Group</t>
   </si>
   <si>
-    <t>Atomic KPI</t>
+    <t xml:space="preserve">Atomic KPI</t>
   </si>
   <si>
-    <t>Remarks (Result Display)</t>
+    <t xml:space="preserve">Remarks (Result Display)</t>
   </si>
   <si>
-    <t>Scene Type</t>
+    <t xml:space="preserve">Scene Type</t>
   </si>
   <si>
-    <t>KPI Type</t>
+    <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
-    <t>SOVI Etitiy Type</t>
+    <t xml:space="preserve">SOVI Etitiy Type</t>
   </si>
   <si>
-    <t>SOVI Numerator</t>
+    <t xml:space="preserve">SOVI Numerator</t>
   </si>
   <si>
-    <t>SOVI Denominator</t>
+    <t xml:space="preserve">SOVI Denominator</t>
   </si>
   <si>
-    <t>Exclude Product_Type</t>
+    <t xml:space="preserve">Exclude Product_Type</t>
   </si>
   <si>
-    <t>Survey Q ID</t>
+    <t xml:space="preserve">Survey Q ID</t>
   </si>
   <si>
-    <t>Survey Q Text</t>
+    <t xml:space="preserve">Survey Q Text</t>
   </si>
   <si>
-    <t>Accepted Survey Answer</t>
+    <t xml:space="preserve">Accepted Survey Answer</t>
   </si>
   <si>
-    <t>Tested KPI Group</t>
+    <t xml:space="preserve">Tested KPI Group</t>
   </si>
   <si>
-    <t>Target</t>
+    <t xml:space="preserve">Target</t>
   </si>
   <si>
-    <t>SCORE</t>
+    <t xml:space="preserve">SCORE</t>
   </si>
   <si>
-    <t>WEIGHT</t>
+    <t xml:space="preserve">WEIGHT</t>
   </si>
   <si>
-    <t>SEE AVAILABILITY</t>
+    <t xml:space="preserve">SEE AVAILABILITY</t>
   </si>
   <si>
-    <t>All</t>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t>Coke (Can or Pet) Single Serve</t>
+    <t xml:space="preserve">Coke (Can or Pet) Single Serve</t>
   </si>
   <si>
-    <t>Availability - Must Have</t>
+    <t xml:space="preserve">Availability - Must Have</t>
   </si>
   <si>
-    <t>Min. facings of Coke or Light or Zero - Can 330ml or PET 390ml</t>
+    <t xml:space="preserve">Min. facings of Coke or Light or Zero - Can 330ml or PET 390ml</t>
   </si>
   <si>
-    <t>Display # of Facings</t>
+    <t xml:space="preserve">Display # of Facings</t>
   </si>
   <si>
-    <t>Availability</t>
+    <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t>According to Availability Targets</t>
+    <t xml:space="preserve">According to Availability Targets</t>
   </si>
   <si>
-    <t>BINARY</t>
+    <t xml:space="preserve">BINARY</t>
   </si>
   <si>
-    <t>Sprite (Can or PET) Single Serve</t>
+    <t xml:space="preserve">Sprite (Can or PET) Single Serve</t>
   </si>
   <si>
-    <t>Min. facings of Sprite Can 330ml or PET 390ml</t>
+    <t xml:space="preserve">Min. facings of Sprite Can 330ml or PET 390ml</t>
   </si>
   <si>
-    <t>Fanta Orange (Can or PET) Single Serve</t>
+    <t xml:space="preserve">Fanta Orange (Can or PET) Single Serve</t>
   </si>
   <si>
-    <t>Min. facings of Fanta Orange Can 330ml or PET 390ml</t>
+    <t xml:space="preserve">Min. facings of Fanta Orange Can 330ml or PET 390ml</t>
   </si>
   <si>
-    <t>Fanta F. Punch(Can or PET) Single Serve</t>
+    <t xml:space="preserve">Fanta F. Punch(Can or PET) Single Serve</t>
   </si>
   <si>
-    <t>Min. facings of Fanta F. Punch Can 330ml or PET 390ml</t>
+    <t xml:space="preserve">Min. facings of Fanta F. Punch Can 330ml or PET 390ml</t>
   </si>
   <si>
-    <t>Fanta Other Flavors (Can or PET) Single Serve</t>
+    <t xml:space="preserve">Fanta Other Flavors (Can or PET) Single Serve</t>
   </si>
   <si>
-    <t>Min. facings of Fanta Grape or Redberry or Blueberry - Can 330ml or PET 390ml</t>
+    <t xml:space="preserve">Min. facings of Fanta Grape or Redberry or Blueberry - Can 330ml or PET 390ml</t>
   </si>
   <si>
-    <t>Samurai (Can or PET) Single Serve</t>
+    <t xml:space="preserve">Samurai (Can or PET) Single Serve</t>
   </si>
   <si>
-    <t>Min. facings of Samurai  Can 330ml or PET 480ml</t>
+    <t xml:space="preserve">Min. facings of Samurai  Can 330ml or PET 480ml</t>
   </si>
   <si>
-    <t>Dasani (Can or PET) Single &amp; Multi Serve</t>
+    <t xml:space="preserve">Dasani (Can or PET) Single &amp; Multi Serve</t>
   </si>
   <si>
-    <t>Min. facings of Dasani PET 350ml or PET 500ml or PET 1.5L</t>
+    <t xml:space="preserve">Min. facings of Dasani PET 350ml or PET 500ml or PET 1.5L</t>
   </si>
   <si>
-    <t>Aquarius (Can or PET) Single Serve</t>
+    <t xml:space="preserve">Aquarius (Can or PET) Single Serve</t>
   </si>
   <si>
-    <t>Min. facings of Aquarius Can 330ml or PET 390ml</t>
+    <t xml:space="preserve">Min. facings of Aquarius Can 330ml or PET 390ml</t>
   </si>
   <si>
-    <t>Coke (PET) Multi Serve</t>
+    <t xml:space="preserve">Coke (PET) Multi Serve</t>
   </si>
   <si>
-    <t>Min. facings of Coke PET 600ml or PET 1.5L or 2.25L</t>
+    <t xml:space="preserve">Min. facings of Coke PET 600ml or PET 1.5L or 2.25L</t>
   </si>
   <si>
-    <t>Sprite (PET) Multi Serve</t>
+    <t xml:space="preserve">Sprite (PET) Multi Serve</t>
   </si>
   <si>
-    <t>Min. facings of Sprite PET 600ml or PET 1.5L</t>
+    <t xml:space="preserve">Min. facings of Sprite PET 600ml or PET 1.5L</t>
   </si>
   <si>
-    <t>Fanta Orange (PET) Multi Serve</t>
+    <t xml:space="preserve">Fanta Orange (PET) Multi Serve</t>
   </si>
   <si>
-    <t>Min. facings of Fanta Orange PET 600ml or PET 1.5L</t>
+    <t xml:space="preserve">Min. facings of Fanta Orange PET 600ml or PET 1.5L</t>
   </si>
   <si>
-    <t>Fanta F. Punch (PET) Multi Serve</t>
+    <t xml:space="preserve">Fanta F. Punch (PET) Multi Serve</t>
   </si>
   <si>
-    <t>Min. facings of Fanta F. Punch PET 600ml or PET 1.5L</t>
+    <t xml:space="preserve">Min. facings of Fanta F. Punch PET 600ml or PET 1.5L</t>
   </si>
   <si>
-    <t>Fanta Other Flavors (Can or PET) Multi Serve</t>
+    <t xml:space="preserve">Fanta Other Flavors (Can or PET) Multi Serve</t>
   </si>
   <si>
-    <t>Min. facings of Fanta Grape or Redberry or Blueberry  - PET 600ml or PET 1.5L</t>
+    <t xml:space="preserve">Min. facings of Fanta Grape or Redberry or Blueberry  - PET 600ml or PET 1.5L</t>
   </si>
   <si>
-    <t>Fanta (Can or PET) Single Serve</t>
+    <t xml:space="preserve">Fanta (Can or PET) Single Serve</t>
   </si>
   <si>
-    <t>Min. facings of Fanta Can 330ml or PET 390ml (Orange or F. Punch or Grape or Redberry or Blueberry)</t>
+    <t xml:space="preserve">Min. facings of Fanta Can 330ml or PET 390ml (Orange or F. Punch or Grape or Redberry or Blueberry)</t>
   </si>
   <si>
-    <t>SEE VISIBILITY</t>
+    <t xml:space="preserve">SEE VISIBILITY</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ប៊ីប៉ូស្ទ័របង្អួចទីផ្សារថ្មី ក្លាហាន</t>
+      <t xml:space="preserve">ប៊ីប៉ូស្ទ័របង្អួចទីផ្សារថ្មី ក្លាហាន</t>
     </r>
     <r>
       <rPr>
@@ -217,36 +217,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(Window-Klahan)</t>
+      <t xml:space="preserve">(Window-Klahan)</t>
     </r>
   </si>
   <si>
-    <t>OBM (Red Window Drive)</t>
+    <t xml:space="preserve">OBM (Red Window Drive)</t>
   </si>
   <si>
-    <t>Visibility</t>
+    <t xml:space="preserve">Visibility</t>
   </si>
   <si>
-    <t>Valid POSM Communication for Window Drive - Red Klahan</t>
+    <t xml:space="preserve">Valid POSM Communication for Window Drive - Red Klahan</t>
   </si>
   <si>
-    <t>Display Answer</t>
+    <t xml:space="preserve">Display Answer</t>
   </si>
   <si>
-    <t>Survey Question</t>
+    <t xml:space="preserve">Survey Question</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>តើសំភារៈទីផ្សារដែលត្រូវមាន និងកំពុងផ្សព្វផ្សាយសម្រាប់បង្អូចថ្មី </t>
-    </r>
     <r>
       <rPr>
         <i val="true"/>
@@ -256,7 +245,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>- </t>
+      <t xml:space="preserve">តើសំភារៈទីផ្សារដែលត្រូវមាន និងកំពុងផ្សព្វផ្សាយសម្រាប់បង្អូចថ្មី - ក្រុមក្លាហានឬទេ</t>
     </r>
     <r>
       <rPr>
@@ -267,7 +256,51 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ក្រុមក្លាហានឬទេ</t>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ប៊ីប៉ូស្ទ័របង្អួចទីផ្សារថ្មី ប្រយុទ្ឋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Window-Broyuth)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OBM (Green Window Drive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid POSM Communication for Window Drive - Green Broyuth</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">តើសំភារៈទីផ្សារដែលត្រូវមាន និងកំពុងផ្សព្វផ្សាយសម្រាប់បង្អូចថ្មី - ក្រុមប្រយុទ្ឋឬទេ</t>
     </r>
     <r>
       <rPr>
@@ -278,22 +311,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>?</t>
+      <t xml:space="preserve">?</t>
     </r>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ប៊ីប៉ូស្ទ័របង្អួចទីផ្សារថ្មី ប្រយុទ្ឋ</t>
+      <t xml:space="preserve">ស្លាកតម្លៃ លើធ្នើរទូរ</t>
     </r>
     <r>
       <rPr>
@@ -303,27 +333,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(Window-Broyuth)</t>
+      <t xml:space="preserve">CBC (Price Communication)</t>
     </r>
   </si>
   <si>
-    <t>OBM (Green Window Drive)</t>
+    <t xml:space="preserve">Price Communication</t>
   </si>
   <si>
-    <t>Valid POSM Communication for Window Drive - Green Broyuth</t>
+    <t xml:space="preserve">Cooler Price Strip Availability</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>តើសំភារៈទីផ្សារដែលត្រូវមាន និងកំពុងផ្សព្វផ្សាយសម្រាប់បង្អូចថ្មី </t>
-    </r>
     <r>
       <rPr>
         <i val="true"/>
@@ -333,7 +352,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>- </t>
+      <t xml:space="preserve">តើមានស្លាកតំលៃផលិតផលកូកា-កូឡា យ៉ាងតិចចំនួន០១ នៅលើធ្នើរនៃទូរទឹកកក​ឬទេ</t>
     </r>
     <r>
       <rPr>
@@ -344,7 +363,51 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ក្រុមប្រយុទ្ឋឬទេ</t>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SEE COOLER</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ទូរCBCនៅទីតាំង ខាងមុខគេ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(KO Cooler First Position)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KO Cooler in First Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">តើទូរទឹកកកនៅកន្លែងដែលអាចមើលឃើញពីកន្លែងភាគច្រើននៃហាងឬទេ</t>
     </r>
     <r>
       <rPr>
@@ -355,7 +418,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>?</t>
+      <t xml:space="preserve">?</t>
     </r>
   </si>
   <si>
@@ -363,11 +426,11 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ស្លាកតម្លៃ លើធ្នើរទូរ</t>
+      <t xml:space="preserve">ទូរCBCបើក ប្រើប្រាស់ </t>
     </r>
     <r>
       <rPr>
@@ -377,27 +440,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CBC (Price Communication)</t>
+      <t xml:space="preserve">(KO Cooler Switch On)</t>
     </r>
   </si>
   <si>
-    <t>Price Communication</t>
+    <t xml:space="preserve">KO Cooler Switch On</t>
   </si>
   <si>
-    <t>Cooler Price Strip Availability</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>តើមានស្លាកតំលៃផលិតផលកូកា</t>
-    </r>
     <r>
       <rPr>
         <i val="true"/>
@@ -407,7 +456,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>-</t>
+      <t xml:space="preserve">តើទូរទឹកកកបើកប្រើប្រាស់(ដំណើរការ)ជានិច្ចឬទេ</t>
     </r>
     <r>
       <rPr>
@@ -418,34 +467,10 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>កូឡា យ៉ាងតិចចំនួន០១ នៅលើធ្នើរនៃទូរទឹកកក​ឬទេ</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
+      <t xml:space="preserve">?</t>
     </r>
   </si>
   <si>
-    <t>SEE COOLER</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ទូរ</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -454,7 +479,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CBC</t>
+      <t xml:space="preserve">ភាពសុទ្ធក្នុង ទូរ</t>
     </r>
     <r>
       <rPr>
@@ -464,7 +489,43 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>នៅទីតាំង ខាងមុខគេ </t>
+      <t xml:space="preserve">CBC (KO Cooler Purity)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">KO Cooler Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min. KO Cooler Combined SOVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Actual SOVI Result with Facings e.g 80% (80/100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia Beverage Company Co.,Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ចំណែកមិនសុទ្ធ ក្នុងទូរ</t>
     </r>
     <r>
       <rPr>
@@ -474,50 +535,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(KO Cooler First Position)</t>
+      <t xml:space="preserve">CBC (Impure KO-Cooler)</t>
     </r>
   </si>
   <si>
-    <t>KO Cooler in First Position</t>
+    <t xml:space="preserve">Impure KO-Cooler</t>
   </si>
   <si>
-    <t>Cooler Space</t>
+    <t xml:space="preserve">KO Cooler Impure Space</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>តើទូរទឹកកកនៅកន្លែងដែលអាចមើលឃើញពីកន្លែងភាគច្រើននៃហាងឬទេ</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t xml:space="preserve">~Cambodia Beverage Company Co.,Ltd</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ទូរ</t>
-    </r>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -526,7 +559,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CBC</t>
+      <t xml:space="preserve">ទូរ</t>
     </r>
     <r>
       <rPr>
@@ -536,7 +569,28 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>បើក ប្រើប្រាស់ </t>
+      <t xml:space="preserve">CBC (KO Cooler)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># of KO Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display # of KO Cooler Scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Count</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ចំណែកផលិតផល ត្រជាក់</t>
     </r>
     <r>
       <rPr>
@@ -546,90 +600,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(KO Cooler Switch On)</t>
+      <t xml:space="preserve">(Cold SOVI)</t>
     </r>
   </si>
   <si>
-    <t>KO Cooler Switch On</t>
+    <t xml:space="preserve">Cooler SOVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min. Cooler SOVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO Cooler,Cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty,Irrelevant</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>តើទូរទឹកកកបើកប្រើប្រាស់</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ដំណើរការ</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ជានិច្ចឬទេ</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ភាពសុទ្ធក្នុង ទូរ</t>
+      <t xml:space="preserve">ចំណែកផលិតផល តាំងមិនត្រជាក់ </t>
     </r>
     <r>
       <rPr>
@@ -639,43 +634,40 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CBC (KO Cooler Purity)</t>
+      <t xml:space="preserve">(Ambient SOVI)</t>
     </r>
   </si>
   <si>
-    <t>KO Cooler Purity</t>
+    <t xml:space="preserve">Ambient SOVI</t>
   </si>
   <si>
-    <t>Min. KO Cooler Combined SOVI</t>
+    <t xml:space="preserve">Ambient Space</t>
   </si>
   <si>
-    <t>Display Actual SOVI Result with Facings e.g 80% (80/100)</t>
+    <t xml:space="preserve">Min. Ambient SOVI</t>
   </si>
   <si>
-    <t>KO Cooler</t>
+    <t xml:space="preserve">Warm</t>
   </si>
   <si>
-    <t>SOS Facings</t>
+    <t xml:space="preserve">TG,Minimart/CVS,Super Market,Café,E&amp;D,SS,Others,Internet,School</t>
   </si>
   <si>
-    <t>manufacturer_name</t>
+    <t xml:space="preserve">Cooler Club</t>
   </si>
   <si>
-    <t>Cambodia Beverage Company Co.,Ltd</t>
-  </si>
-  <si>
-    <t>Empty</t>
+    <t xml:space="preserve">Store meets the condition of Cooler Club</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ចំណែកមិនសុទ្ធ ក្នុងទូរ</t>
+      <t xml:space="preserve">តើទូរទឹកកកកូកា-កូឡានៅក្នុងហាងនេះ ចូលរួមកម្មវិធី Cooler Club ឬទេ</t>
     </r>
     <r>
       <rPr>
@@ -685,31 +677,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CBC (Impure KO-Cooler)</t>
+      <t xml:space="preserve">?</t>
     </r>
-  </si>
-  <si>
-    <t>Impure KO-Cooler</t>
-  </si>
-  <si>
-    <t>KO Cooler Impure Space</t>
-  </si>
-  <si>
-    <t>~Cambodia Beverage Company Co.,Ltd</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ទូរ</t>
+      <t xml:space="preserve">ផលិតផលត្រូវមានលក់ </t>
     </r>
     <r>
       <rPr>
@@ -719,28 +699,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>CBC (KO Cooler)</t>
+      <t xml:space="preserve">(Availability)</t>
     </r>
   </si>
   <si>
-    <t># of KO Coolers</t>
+    <t xml:space="preserve">RED SCORE</t>
   </si>
   <si>
-    <t>Display # of KO Cooler Scenes</t>
-  </si>
-  <si>
-    <t>Scene Count</t>
+    <t xml:space="preserve">Total  Weight of passed KPI Group</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ចំណែកផលិតផល ត្រជាក់</t>
+      <t xml:space="preserve">សម្ភារៈត្រូវដាក់តាំង </t>
     </r>
     <r>
       <rPr>
@@ -750,31 +727,19 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(Cold SOVI)</t>
+      <t xml:space="preserve">(Visibility)</t>
     </r>
-  </si>
-  <si>
-    <t>Cooler SOVI</t>
-  </si>
-  <si>
-    <t>Min. Cooler SOVI</t>
-  </si>
-  <si>
-    <t>KO Cooler,Cold</t>
-  </si>
-  <si>
-    <t>Empty,Irrelevant</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ចំណែកផលិតផល តាំងមិនត្រជាក់ </t>
+      <t xml:space="preserve">ទូរទឹកកកក </t>
     </r>
     <r>
       <rPr>
@@ -784,41 +749,10 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>(Ambient SOVI)</t>
+      <t xml:space="preserve">(Cooler Space)</t>
     </r>
   </si>
   <si>
-    <t>Ambient SOVI</t>
-  </si>
-  <si>
-    <t>Ambient Space</t>
-  </si>
-  <si>
-    <t>Min. Ambient SOVI</t>
-  </si>
-  <si>
-    <t>Warm</t>
-  </si>
-  <si>
-    <t>TG,Minimart/CVS,Super Market,Café,E&amp;D,SS,Others,Internet,School</t>
-  </si>
-  <si>
-    <t>Cooler Club</t>
-  </si>
-  <si>
-    <t>Store meets the condition of Cooler Club</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>តើទូរទឹកកកកូកា</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -827,7 +761,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>-</t>
+      <t xml:space="preserve">ផលិតផលដាក់តាំងមិនត្រជាក់ </t>
     </r>
     <r>
       <rPr>
@@ -837,8 +771,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>កូឡានៅក្នុងហាងនេះ ចូលរួមកម្មវិធី </t>
+      <t xml:space="preserve">(Ambient Space)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler Space &amp; Ambient Space</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -847,7 +786,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Cooler Club </t>
+      <t xml:space="preserve">ពិន្ទុប្រតិបត្តិទីផ្សារ </t>
     </r>
     <r>
       <rPr>
@@ -857,323 +796,194 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ឬទេ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?</t>
+      <t xml:space="preserve">(RED Score)</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ផលិតផលត្រូវមានលក់ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(Availability)</t>
-    </r>
+    <t xml:space="preserve">Red Score</t>
   </si>
   <si>
-    <t>RED SCORE</t>
+    <t xml:space="preserve">NORMALIZED AVERAGE OF KPIs in GROUP</t>
   </si>
   <si>
-    <t>Total  Weight of passed KPI Group</t>
+    <t xml:space="preserve">Sprite Zero (Can or PET) Single Serve</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>សម្ភារៈត្រូវដាក់តាំង </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(Visibility)</t>
-    </r>
+    <t xml:space="preserve">Min. facings of Sprite Zero 330ml CAN</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ទូរទឹកកកក </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(Cooler Space)</t>
-    </r>
+    <t xml:space="preserve">Mutant (Can or PET) Single Serve</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ផលិតផលដាក់តាំងមិនត្រជាក់ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(Ambient Space)</t>
-    </r>
+    <t xml:space="preserve">Min. facings of Mutant Green 330ml CAN or Mutant Black 330ml CAN or  Mutant Green 330ml PET or Mutant Black 330ml PET</t>
   </si>
   <si>
-    <t>Cooler Space &amp; Ambient Space</t>
+    <t xml:space="preserve">Products</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ពិន្ទុប្រតិបត្តិទីផ្សារ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(RED Score)</t>
-    </r>
+    <t xml:space="preserve">Min. Facings Per Store Types (N/A - do not run KPI)</t>
   </si>
   <si>
-    <t>Red Score</t>
+    <t xml:space="preserve">Channel: Off Premise</t>
   </si>
   <si>
-    <t>NORMALIZED AVERAGE OF KPIs in GROUP</t>
+    <t xml:space="preserve">Channel: On Premise</t>
   </si>
   <si>
-    <t>Sprite Zero (Can or PET) Single Serve</t>
+    <t xml:space="preserve">Product List</t>
   </si>
   <si>
-    <t>Min. facings of Sprite Zero 330ml CAN</t>
+    <t xml:space="preserve">Products EANs</t>
   </si>
   <si>
-    <t>Mutant (Can or PET) Single Serve</t>
+    <t xml:space="preserve">TG</t>
   </si>
   <si>
-    <t>Min. facings of Mutant Green 330ml CAN or Mutant Black 330ml CAN or  Mutant Green 330ml PET or Mutant Black 330ml PET</t>
+    <t xml:space="preserve">Minimart/CVS</t>
   </si>
   <si>
-    <t>Products</t>
+    <t xml:space="preserve">Super Market</t>
   </si>
   <si>
-    <t>Min. Facings Per Store Types (N/A - do not run KPI)</t>
+    <t xml:space="preserve">Café</t>
   </si>
   <si>
-    <t>Channel: Off Premise</t>
+    <t xml:space="preserve">E&amp;D</t>
   </si>
   <si>
-    <t>Channel: On Premise</t>
+    <t xml:space="preserve">SS</t>
   </si>
   <si>
-    <t>Product List</t>
+    <t xml:space="preserve">Others</t>
   </si>
   <si>
-    <t>Products EANs</t>
+    <t xml:space="preserve">Internet</t>
   </si>
   <si>
-    <t>TG</t>
+    <t xml:space="preserve">School</t>
   </si>
   <si>
-    <t>Minimart/CVS</t>
+    <t xml:space="preserve">HORECA</t>
   </si>
   <si>
-    <t>Super Market</t>
+    <t xml:space="preserve">Sport</t>
   </si>
   <si>
-    <t>Café</t>
+    <t xml:space="preserve">Hotel &amp; GH</t>
   </si>
   <si>
-    <t>E&amp;D</t>
+    <t xml:space="preserve">Garment/Factory</t>
   </si>
   <si>
-    <t>SS</t>
+    <t xml:space="preserve">BBQ/Soup</t>
   </si>
   <si>
-    <t>Others</t>
+    <t xml:space="preserve">KTV</t>
   </si>
   <si>
-    <t>INTERNET</t>
+    <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <t>School</t>
+    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml</t>
   </si>
   <si>
-    <t>HORECA</t>
+    <t xml:space="preserve">8847100562715,8847100562746,8847100567574,8847100566898,8847100565389,8847100562234,8847100562234,8847100565389,8847100567468,8847100565389</t>
   </si>
   <si>
-    <t>Sport</t>
+    <t xml:space="preserve">Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET</t>
   </si>
   <si>
-    <t>Hotel &amp; GH</t>
+    <t xml:space="preserve">8851959905944,8847100562104,8847100561459,8847100563736,8847100568793</t>
   </si>
   <si>
-    <t>Garment/Factory</t>
+    <t xml:space="preserve">Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml</t>
   </si>
   <si>
-    <t>BBQ/Soup</t>
+    <t xml:space="preserve">8847100560094,8847100561244,8847100564603,8847100905883,8847100567376</t>
   </si>
   <si>
-    <t>KTV</t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t>Club</t>
+    <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml</t>
   </si>
   <si>
-    <t>Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml</t>
+    <t xml:space="preserve">8847100567352,8847100564184,8847100564061,8847100905883,8847100568793</t>
   </si>
   <si>
-    <t>8847100562715,8847100562746,8847100567574,8847100566898,8847100565389,8847100562234,8847100562234,8847100565389,8847100567468,8847100565389</t>
+    <t xml:space="preserve">Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml</t>
   </si>
   <si>
-    <t>Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET</t>
+    <t xml:space="preserve">8847100560117,8847100561329,8847100568588,8847100568175,8847100563880,8847100567215,8847100561725</t>
   </si>
   <si>
-    <t>8851959905944,8847100562104,8847100561459,8847100563736,8847100568793</t>
+    <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml</t>
   </si>
   <si>
-    <t>Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml</t>
+    <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,8847100566867,8847100567864</t>
   </si>
   <si>
-    <t>8847100560094,8847100561244,8847100564603,8847100905883,8847100567376</t>
+    <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PET</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t xml:space="preserve">8847100560025,8847100568526,8847100562111,8847100567784</t>
   </si>
   <si>
-    <t>Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml</t>
+    <t xml:space="preserve">Aquarius 330ml Can,Aquarius 330ml Sleek Can,Aquarius 390ml PET</t>
   </si>
   <si>
-    <t>8847100567352,8847100564184,8847100564061,8847100905883,8847100568793</t>
+    <t xml:space="preserve">8847100561237,8847100568960,8847100563170</t>
   </si>
   <si>
-    <t>Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml</t>
+    <t xml:space="preserve">Coca Cola 600ml,Coca Cola 1.25L,Coca Cola 1.5L,Coca Cola 2.25L</t>
   </si>
   <si>
-    <t>8847100560117,8847100561329,8847100568588,8847100568175,8847100563880,8847100567215,8847100561725</t>
+    <t xml:space="preserve">8847100563637,8851959905951,8935049500117,8847100560568</t>
   </si>
   <si>
-    <t>Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml</t>
+    <t xml:space="preserve">Sprite 600ml PET,Sprite 1.25L,Sprite 1.5L</t>
   </si>
   <si>
-    <t>8847100566591,8847100566607,8847100566874,8847100566676,8847100566867,8847100567864</t>
+    <t xml:space="preserve">8847100564849,8851959905982,8847100560902</t>
   </si>
   <si>
-    <t>Dasani 350ml,Dasani 500ml,Dasani 1.5L PET</t>
+    <t xml:space="preserve">Fanta Orange 1.5L</t>
   </si>
   <si>
-    <t>8847100560025,8847100568526,8847100562111,8847100567784</t>
+    <t xml:space="preserve">8847100560896</t>
   </si>
   <si>
-    <t>Aquarius 330ml Can,Aquarius 330ml Sleek Can,Aquarius 390ml PET</t>
+    <t xml:space="preserve">Fanta Fruit Punch 600ml,Fanta Fruit Punch 1.5L</t>
   </si>
   <si>
-    <t>8847100561237,8847100568960,8847100563170</t>
+    <t xml:space="preserve">8847100569073,8847100564979</t>
   </si>
   <si>
-    <t>Coca Cola 600ml,Coca Cola 1.25L,Coca Cola 1.5L,Coca Cola 2.25L</t>
+    <t xml:space="preserve">Fanta Grape 1.5L PET,Fanta Blueberry 1.5L</t>
   </si>
   <si>
-    <t>8847100563637,8851959905951,8935049500117,8847100560568</t>
+    <t xml:space="preserve">8847100563149,8847100568830</t>
   </si>
   <si>
-    <t>Sprite 600ml PET,Sprite 1.25L,Sprite 1.5L</t>
+    <t xml:space="preserve">Fanta Orange 330ml,Fanta Fruit Punch 330ml,Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml,Fanta Orange 390ml,Fanta Fruit Punch 390ml,Fanta Orange 500ml</t>
   </si>
   <si>
-    <t>8847100564849,8851959905982,8847100560902</t>
+    <t xml:space="preserve">8847100560094,8847100567352,8847100560117,8847100561329,8847100568588,8847100568175,8847100561244,8847100564184,8847100564603</t>
   </si>
   <si>
-    <t>Fanta Orange 1.5L</t>
+    <t xml:space="preserve">Sprite Zero 330ml Can</t>
   </si>
   <si>
-    <t>8847100560896</t>
-  </si>
-  <si>
-    <t>Fanta Fruit Punch 600ml,Fanta Fruit Punch 1.5L</t>
-  </si>
-  <si>
-    <t>8847100569073,8847100564979</t>
-  </si>
-  <si>
-    <t>Fanta Grape 1.5L PET,Fanta Blueberry 1.5L</t>
-  </si>
-  <si>
-    <t>8847100563149,8847100568830</t>
-  </si>
-  <si>
-    <t>Fanta Orange 330ml,Fanta Fruit Punch 330ml,Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml,Fanta Orange 390ml,Fanta Fruit Punch 390ml,Fanta Orange 500ml</t>
-  </si>
-  <si>
-    <t>8847100560094,8847100567352,8847100560117,8847100561329,8847100568588,8847100568175,8847100561244,8847100564184,8847100564603</t>
-  </si>
-  <si>
-    <t>Sprite Zero 330ml Can</t>
-  </si>
-  <si>
-    <t>Mutant Green 330ml Can,
+    <t xml:space="preserve">Mutant Green 330ml Can,
 Mutant Black 330ml Can,
 Mutant Green 400ml PET,
 Mutant Yellow 400ml PET</t>
   </si>
   <si>
-    <t>8847100566650,8847100568601,8847100568595,8847100568618</t>
+    <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618</t>
   </si>
   <si>
-    <t>Weight Per Store Types (N/A - do not run KPI)</t>
+    <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
   </si>
 </sst>
 </file>
@@ -1181,14 +991,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1262,6 +1072,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1559,7 +1375,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1693,6 +1509,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1872,7 +1692,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1980,7 +1800,7 @@
   </sheetPr>
   <dimension ref="1:39"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
@@ -1988,27 +1808,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="75.5182186234818"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="59.663967611336"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.73279352226721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.1538461538462"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="77.3684210526316"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.0769230769231"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.2550607287449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3562753036437"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.4048582995951"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.9392712550607"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.753036437247"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34728,32 +34548,32 @@
   <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="4.60728744939271"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="21" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="46.3967611336032"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.79352226720648"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5060728744939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="4.64777327935223"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.79352226720648"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="21" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.32793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.51417004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.54655870445344"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.89878542510122"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -36849,7 +36669,7 @@
       <c r="K5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>139</v>
       </c>
       <c r="M5" s="33" t="s">
@@ -36873,838 +36693,838 @@
       <c r="S5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="38" t="n">
+      <c r="G6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="38" t="n">
+      <c r="H6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="38" t="n">
+      <c r="I6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="38" t="n">
+      <c r="J6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="38" t="n">
+      <c r="K6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="38" t="n">
+      <c r="L6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="38" t="n">
+      <c r="M6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="38" t="n">
+      <c r="N6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="O6" s="38" t="n">
+      <c r="O6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="38" t="n">
+      <c r="P6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="38" t="n">
+      <c r="Q6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="38" t="n">
+      <c r="R6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="38" t="n">
+      <c r="S6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="38" t="n">
+      <c r="T6" s="39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="38" t="n">
+      <c r="F7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="38" t="n">
+      <c r="G7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="38" t="n">
+      <c r="H7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="38" t="n">
+      <c r="I7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="38" t="n">
+      <c r="J7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="38" t="n">
+      <c r="K7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L7" s="38" t="n">
+      <c r="L7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="38" t="n">
+      <c r="M7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="38" t="n">
+      <c r="N7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="38" t="n">
+      <c r="O7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P7" s="38" t="n">
+      <c r="P7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" s="38" t="n">
+      <c r="Q7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="38" t="n">
+      <c r="R7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S7" s="38" t="n">
+      <c r="S7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T7" s="38" t="n">
+      <c r="T7" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="38" t="n">
+      <c r="F8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="38" t="n">
+      <c r="G8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="38" t="n">
+      <c r="H8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="38" t="n">
+      <c r="I8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="38" t="n">
+      <c r="J8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="38" t="n">
+      <c r="K8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="38" t="n">
+      <c r="L8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="38" t="n">
+      <c r="M8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="38" t="n">
+      <c r="F9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="38" t="n">
+      <c r="G9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="38" t="n">
+      <c r="H9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="38" t="n">
+      <c r="I9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="38" t="n">
+      <c r="J9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K9" s="38" t="n">
+      <c r="K9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="38" t="n">
+      <c r="L9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="38" t="n">
+      <c r="M9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="50.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="38" t="n">
+      <c r="F10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="38" t="n">
+      <c r="G10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="38" t="n">
+      <c r="H10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="38" t="n">
+      <c r="I10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="38" t="n">
+      <c r="J10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K10" s="38" t="n">
+      <c r="K10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="38" t="n">
+      <c r="L10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="38" t="n">
+      <c r="M10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="38" t="n">
+      <c r="F11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="38" t="n">
+      <c r="G11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="38" t="n">
+      <c r="H11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="38" t="n">
+      <c r="I11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="38" t="n">
+      <c r="J11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K11" s="38" t="n">
+      <c r="K11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L11" s="38" t="n">
+      <c r="L11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M11" s="38" t="n">
+      <c r="M11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="38" t="n">
+      <c r="N11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O11" s="38" t="n">
+      <c r="O11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="38" t="n">
+      <c r="P11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="38" t="n">
+      <c r="Q11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="38" t="n">
+      <c r="R11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S11" s="38" t="n">
+      <c r="S11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T11" s="38" t="n">
+      <c r="T11" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="38" t="n">
+      <c r="H12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="38" t="n">
+      <c r="I12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="38" t="n">
+      <c r="J12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="38" t="n">
+      <c r="K12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="38" t="n">
+      <c r="L12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="38" t="n">
+      <c r="M12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="38" t="n">
+      <c r="N12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O12" s="38" t="n">
+      <c r="O12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P12" s="38" t="n">
+      <c r="P12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" s="38" t="n">
+      <c r="Q12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="38" t="n">
+      <c r="R12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S12" s="38" t="n">
+      <c r="S12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T12" s="38" t="n">
+      <c r="T12" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="38" t="n">
+      <c r="E13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="38" t="n">
+      <c r="F13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="38" t="n">
+      <c r="G13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="38" t="n">
+      <c r="H13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="38" t="n">
+      <c r="I13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="38" t="n">
+      <c r="J13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="38" t="n">
+      <c r="K13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="38" t="n">
+      <c r="L13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="38" t="n">
+      <c r="M13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="38" t="n">
+      <c r="N13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="38" t="n">
+      <c r="O13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="P13" s="38" t="n">
+      <c r="P13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="38" t="n">
+      <c r="Q13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="38" t="n">
+      <c r="R13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="S13" s="38" t="n">
+      <c r="S13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="38" t="n">
+      <c r="T13" s="39" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="38" t="n">
+      <c r="E14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="38" t="n">
+      <c r="F14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="38" t="n">
+      <c r="G14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T14" s="38" t="s">
+      <c r="T14" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="38" t="n">
+      <c r="E15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="38" t="n">
+      <c r="F15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="38" t="n">
+      <c r="G15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="38" t="s">
+      <c r="Q15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T15" s="38" t="s">
+      <c r="T15" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="38" t="n">
+      <c r="E16" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="38" t="n">
+      <c r="F16" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="38" t="n">
+      <c r="G16" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="P16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q16" s="38" t="s">
+      <c r="Q16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T16" s="38" t="s">
+      <c r="T16" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="38" t="n">
+      <c r="E17" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="38" t="n">
+      <c r="F17" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="38" t="n">
+      <c r="G17" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="P17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="38" t="s">
+      <c r="S17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T17" s="38" t="s">
+      <c r="T17" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="38" t="n">
+      <c r="E18" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="38" t="n">
+      <c r="F18" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="38" t="n">
+      <c r="G18" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T18" s="38" t="s">
+      <c r="T18" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="38" t="n">
+      <c r="N19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="38" t="n">
+      <c r="O19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P19" s="38" t="n">
+      <c r="P19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" s="38" t="n">
+      <c r="Q19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="38" t="n">
+      <c r="R19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="38" t="n">
+      <c r="S19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T19" s="38" t="n">
+      <c r="T19" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -37713,111 +37533,111 @@
       <c r="D20" s="10" t="n">
         <v>8847100562364</v>
       </c>
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="38" t="n">
+      <c r="F20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="38" t="n">
+      <c r="G20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="38" t="n">
+      <c r="H20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="38" t="n">
+      <c r="I20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="38" t="n">
+      <c r="J20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K20" s="38" t="n">
+      <c r="K20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L20" s="38" t="n">
+      <c r="L20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M20" s="38" t="n">
+      <c r="M20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N20" s="38" t="n">
+      <c r="N20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="38" t="n">
+      <c r="O20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="38" t="n">
+      <c r="P20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" s="38" t="n">
+      <c r="Q20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="38" t="n">
+      <c r="R20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S20" s="38" t="n">
+      <c r="S20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T20" s="38" t="n">
+      <c r="T20" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="38" t="n">
+      <c r="E21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="38" t="n">
+      <c r="F21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="38" t="n">
+      <c r="G21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="38" t="n">
+      <c r="H21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="38" t="n">
+      <c r="I21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="38" t="n">
+      <c r="J21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K21" s="38" t="n">
+      <c r="K21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="38" t="n">
+      <c r="L21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M21" s="38" t="n">
+      <c r="M21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="38" t="n">
+      <c r="N21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="38" t="n">
+      <c r="O21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P21" s="38" t="n">
+      <c r="P21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="38" t="n">
+      <c r="Q21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="38" t="n">
+      <c r="R21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S21" s="38" t="n">
+      <c r="S21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T21" s="38" t="n">
+      <c r="T21" s="39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37846,27 +37666,27 @@
   <dimension ref="B1:R8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.24696356275304"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.26315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.51417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.89878542510122"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37908,7 +37728,7 @@
       <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="25" t="s">
         <v>180</v>
       </c>
@@ -37929,7 +37749,7 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
@@ -37952,7 +37772,7 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -37961,7 +37781,7 @@
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="44" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -37976,7 +37796,7 @@
       <c r="I5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="34" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="33" t="s">
@@ -38000,166 +37820,166 @@
       <c r="Q5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="46" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="D6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="47" t="n">
+      <c r="E6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="45" t="n">
+      <c r="F6" s="46" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="48" t="n">
+      <c r="G6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="48" t="n">
+      <c r="H6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="48" t="n">
+      <c r="I6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="48" t="n">
+      <c r="J6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="48" t="n">
+      <c r="K6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="46" t="n">
+      <c r="L6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="46" t="n">
+      <c r="M6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="46" t="n">
+      <c r="N6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="46" t="n">
+      <c r="O6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="46" t="n">
+      <c r="P6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="46" t="n">
+      <c r="Q6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="49" t="n">
+      <c r="R6" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="51" t="n">
+      <c r="C7" s="52" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="52" t="n">
+      <c r="D7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="E7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="51" t="n">
+      <c r="F7" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="54" t="n">
+      <c r="G7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="54" t="n">
+      <c r="H7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="54" t="n">
+      <c r="I7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="54" t="n">
+      <c r="J7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="54" t="n">
+      <c r="K7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="52" t="n">
+      <c r="L7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="52" t="n">
+      <c r="M7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="52" t="n">
+      <c r="N7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="52" t="n">
+      <c r="O7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="52" t="n">
+      <c r="P7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="52" t="n">
+      <c r="Q7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="55" t="n">
+      <c r="R7" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="57" t="n">
+      <c r="C8" s="58" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="58" t="n">
+      <c r="D8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="59" t="n">
+      <c r="E8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="57" t="n">
+      <c r="F8" s="58" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="60" t="n">
+      <c r="G8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="60" t="n">
+      <c r="H8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="60" t="n">
+      <c r="I8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="60" t="n">
+      <c r="J8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="60" t="n">
+      <c r="K8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="58" t="n">
+      <c r="L8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="58" t="n">
+      <c r="M8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="58" t="n">
+      <c r="N8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="58" t="n">
+      <c r="O8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="58" t="n">
+      <c r="P8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="58" t="n">
+      <c r="Q8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="61" t="n">
+      <c r="R8" s="62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38187,32 +38007,32 @@
   </sheetPr>
   <dimension ref="B1:S12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.60728744939271"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.60728744939271"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.4453441295547"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.89878542510122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.64777327935223"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.51417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.64777327935223"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38256,8 +38076,8 @@
       <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="25" t="s">
         <v>180</v>
       </c>
@@ -38278,8 +38098,8 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="41"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="26" t="s">
         <v>128</v>
       </c>
@@ -38302,13 +38122,13 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="66" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -38329,7 +38149,7 @@
       <c r="J5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="34" t="s">
         <v>139</v>
       </c>
       <c r="L5" s="33" t="s">
@@ -38353,399 +38173,399 @@
       <c r="R5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="68" t="n">
+      <c r="D6" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="68" t="n">
+      <c r="E6" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="69" t="n">
+      <c r="F6" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="70" t="n">
+      <c r="G6" s="71" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="68" t="n">
+      <c r="H6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="68" t="n">
+      <c r="I6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="68" t="n">
+      <c r="J6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="68" t="n">
+      <c r="K6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="68" t="n">
+      <c r="L6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="71" t="n">
+      <c r="M6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="71" t="n">
+      <c r="N6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="71" t="n">
+      <c r="O6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="71" t="n">
+      <c r="P6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="71" t="n">
+      <c r="Q6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="71" t="n">
+      <c r="R6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="72" t="n">
+      <c r="S6" s="73" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="68" t="n">
+      <c r="D7" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="68" t="n">
+      <c r="E7" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="69" t="n">
+      <c r="F7" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="70" t="n">
+      <c r="G7" s="71" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="68" t="n">
+      <c r="H7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="68" t="n">
+      <c r="I7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="68" t="n">
+      <c r="J7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="68" t="n">
+      <c r="K7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="68" t="n">
+      <c r="L7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="71" t="n">
+      <c r="M7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="71" t="n">
+      <c r="N7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="71" t="n">
+      <c r="O7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="71" t="n">
+      <c r="P7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="71" t="n">
+      <c r="Q7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="71" t="n">
+      <c r="R7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="72" t="n">
+      <c r="S7" s="73" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="68" t="n">
+      <c r="D8" s="69" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="68" t="n">
+      <c r="E8" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="69" t="n">
+      <c r="F8" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="70" t="n">
+      <c r="G8" s="71" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="68" t="n">
+      <c r="H8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="68" t="n">
+      <c r="I8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="68" t="n">
+      <c r="J8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="68" t="n">
+      <c r="K8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="68" t="n">
+      <c r="L8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="71" t="n">
+      <c r="M8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="71" t="n">
+      <c r="N8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="71" t="n">
+      <c r="O8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="71" t="n">
+      <c r="P8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="71" t="n">
+      <c r="Q8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="71" t="n">
+      <c r="R8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="72" t="n">
+      <c r="S8" s="73" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="67" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="68" t="n">
+      <c r="D9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="68" t="n">
+      <c r="E9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="69" t="n">
+      <c r="F9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="70" t="n">
+      <c r="G9" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="68" t="n">
+      <c r="H9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="68" t="n">
+      <c r="I9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="68" t="n">
+      <c r="J9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="68" t="n">
+      <c r="K9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="68" t="n">
+      <c r="L9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="71" t="n">
+      <c r="M9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="71" t="n">
+      <c r="N9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="71" t="n">
+      <c r="O9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="71" t="n">
+      <c r="P9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="71" t="n">
+      <c r="Q9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="71" t="n">
+      <c r="R9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="72" t="n">
+      <c r="S9" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="68" t="n">
+      <c r="D10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="68" t="n">
+      <c r="E10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="69" t="n">
+      <c r="F10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="70" t="n">
+      <c r="G10" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="68" t="n">
+      <c r="H10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="68" t="n">
+      <c r="I10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="68" t="n">
+      <c r="J10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="68" t="n">
+      <c r="K10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="68" t="n">
+      <c r="L10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="71" t="n">
+      <c r="M10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="71" t="n">
+      <c r="N10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="71" t="n">
+      <c r="O10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="71" t="n">
+      <c r="P10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="71" t="n">
+      <c r="Q10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="71" t="n">
+      <c r="R10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="72" t="n">
+      <c r="S10" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="68" t="n">
+      <c r="D11" s="69" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="68" t="n">
+      <c r="E11" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="69" t="n">
+      <c r="F11" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="75" t="n">
+      <c r="G11" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="76" t="n">
+      <c r="H11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="76" t="n">
+      <c r="I11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="76" t="n">
+      <c r="J11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="76" t="n">
+      <c r="K11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="76" t="n">
+      <c r="L11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="76" t="n">
+      <c r="M11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="76" t="n">
+      <c r="N11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="76" t="n">
+      <c r="O11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="76" t="n">
+      <c r="P11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="76" t="n">
+      <c r="Q11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="76" t="n">
+      <c r="R11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="77" t="n">
+      <c r="S11" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="79" t="n">
+      <c r="D12" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="79" t="n">
+      <c r="E12" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="80" t="n">
+      <c r="F12" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="81" t="n">
+      <c r="G12" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="82" t="n">
+      <c r="H12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="82" t="n">
+      <c r="I12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="82" t="n">
+      <c r="J12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="82" t="n">
+      <c r="K12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="82" t="n">
+      <c r="L12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="83" t="s">
+      <c r="M12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="83" t="s">
+      <c r="N12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="83" t="s">
+      <c r="Q12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="83" t="s">
+      <c r="R12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="84" t="s">
+      <c r="S12" s="85" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/CCKH_SAND/Data/Template.xlsx
+++ b/Projects/CCKH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="181">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml</t>
+    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml, Coke ESP 330ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100562715,8847100562746,8847100567574,8847100566898,8847100565389,8847100562234,8847100562234,8847100565389,8847100567468,8847100565389</t>
+    <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">8847100567352,8847100564184,8847100564061,8847100905883,8847100568793</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml</t>
+    <t xml:space="preserve">Fanta Grape  330ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560117,8847100561329,8847100568588,8847100568175,8847100563880,8847100567215,8847100561725</t>
+    <t xml:space="preserve">8847100560117</t>
   </si>
   <si>
     <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,8847100566867,8847100567864</t>
   </si>
   <si>
-    <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PET</t>
+    <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PET,Dasani 550ml,Dasani Mineral 500ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560025,8847100568526,8847100562111,8847100567784</t>
+    <t xml:space="preserve">8847100560025,8847100568526,8847100562111,8847100567784,8851959905999,8847100567784</t>
   </si>
   <si>
     <t xml:space="preserve">Aquarius 330ml Can,Aquarius 330ml Sleek Can,Aquarius 390ml PET</t>
@@ -974,13 +974,10 @@
     <t xml:space="preserve">Sprite Zero 330ml Can</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutant Green 330ml Can,
-Mutant Black 330ml Can,
-Mutant Green 400ml PET,
-Mutant Yellow 400ml PET</t>
+    <t xml:space="preserve">Mutant Green 330ml Can,Mutant Black 330ml Can,Mutant Green 400ml PET,Mutant Yellow 400ml PET,Mutant Red 330ml Can</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618</t>
+    <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943</t>
   </si>
   <si>
     <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
@@ -1074,8 +1071,8 @@
       <charset val="177"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1512,10 +1509,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1533,6 +1526,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1808,27 +1805,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.73279352226721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.1538461538462"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.2348178137652"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.663967611336"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="77.3684210526316"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.0769230769231"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.4817813765182"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.2550607287449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.3562753036437"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.919028340081"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.4048582995951"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.9392712550607"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.995951417004"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.995951417004"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.7327935222672"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34547,33 +34544,33 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="46.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.2348178137652"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.79352226720648"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="4.64777327935223"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.79352226720648"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="21" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.32793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.51417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.0404858299595"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.53441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.63967611336032"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.89878542510122"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -36669,7 +36666,7 @@
       <c r="K5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>139</v>
       </c>
       <c r="M5" s="33" t="s">
@@ -36693,838 +36690,838 @@
       <c r="S5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
+    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="39" t="n">
+      <c r="E6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="39" t="n">
+      <c r="F6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="39" t="n">
+      <c r="G6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="39" t="n">
+      <c r="H6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="39" t="n">
+      <c r="I6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="39" t="n">
+      <c r="J6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="39" t="n">
+      <c r="K6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="39" t="n">
+      <c r="L6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="39" t="n">
+      <c r="M6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="39" t="n">
+      <c r="N6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="O6" s="39" t="n">
+      <c r="O6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="39" t="n">
+      <c r="P6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="39" t="n">
+      <c r="Q6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="39" t="n">
+      <c r="R6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="39" t="n">
+      <c r="S6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="39" t="n">
+      <c r="T6" s="38" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="39" t="n">
+      <c r="E7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="39" t="n">
+      <c r="F7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="39" t="n">
+      <c r="G7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="39" t="n">
+      <c r="H7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="39" t="n">
+      <c r="I7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="39" t="n">
+      <c r="J7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="39" t="n">
+      <c r="K7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L7" s="39" t="n">
+      <c r="L7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="39" t="n">
+      <c r="M7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="39" t="n">
+      <c r="N7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="39" t="n">
+      <c r="O7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P7" s="39" t="n">
+      <c r="P7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" s="39" t="n">
+      <c r="Q7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="39" t="n">
+      <c r="R7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S7" s="39" t="n">
+      <c r="S7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T7" s="39" t="n">
+      <c r="T7" s="38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="39" t="n">
+      <c r="E8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="39" t="n">
+      <c r="F8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="39" t="n">
+      <c r="G8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="39" t="n">
+      <c r="H8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="39" t="n">
+      <c r="I8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="39" t="n">
+      <c r="J8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="39" t="n">
+      <c r="K8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="39" t="n">
+      <c r="L8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="39" t="n">
+      <c r="M8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="Q8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
+    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="39" t="n">
+      <c r="E9" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="39" t="n">
+      <c r="I9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="39" t="n">
+      <c r="J9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="39" t="n">
+      <c r="K9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="39" t="n">
+      <c r="L9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="39" t="n">
+      <c r="M9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K9" s="39" t="n">
+      <c r="N9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="39" t="n">
+      <c r="F10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="39" t="n">
+      <c r="G10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="T9" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="50.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="39" t="n">
+      <c r="H10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="39" t="n">
+      <c r="I10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="39" t="n">
+      <c r="J10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="39" t="n">
+      <c r="K10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="39" t="n">
+      <c r="L10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="39" t="n">
+      <c r="M10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K10" s="39" t="n">
+      <c r="N10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="39" t="n">
+      <c r="O10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="39" t="n">
+      <c r="P10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>154</v>
+      <c r="Q10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="39" t="n">
+      <c r="E11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="39" t="n">
+      <c r="F11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="39" t="n">
+      <c r="G11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="39" t="n">
+      <c r="H11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="39" t="n">
+      <c r="I11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="39" t="n">
+      <c r="J11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K11" s="39" t="n">
+      <c r="K11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L11" s="39" t="n">
+      <c r="L11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M11" s="39" t="n">
+      <c r="M11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="39" t="n">
+      <c r="N11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O11" s="39" t="n">
+      <c r="O11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="39" t="n">
+      <c r="P11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="39" t="n">
+      <c r="Q11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="39" t="n">
+      <c r="R11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S11" s="39" t="n">
+      <c r="S11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T11" s="39" t="n">
+      <c r="T11" s="38" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="s">
+    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="39" t="n">
+      <c r="F12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="39" t="n">
+      <c r="G12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="39" t="n">
+      <c r="H12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="39" t="n">
+      <c r="I12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="39" t="n">
+      <c r="J12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="39" t="n">
+      <c r="K12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="39" t="n">
+      <c r="L12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="39" t="n">
+      <c r="M12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="39" t="n">
+      <c r="N12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O12" s="39" t="n">
+      <c r="O12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P12" s="39" t="n">
+      <c r="P12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" s="39" t="n">
+      <c r="Q12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="39" t="n">
+      <c r="R12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S12" s="39" t="n">
+      <c r="S12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T12" s="39" t="n">
+      <c r="T12" s="38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="39" t="n">
+      <c r="E13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="39" t="n">
+      <c r="F13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="39" t="n">
+      <c r="G13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="39" t="n">
+      <c r="H13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="39" t="n">
+      <c r="I13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="39" t="n">
+      <c r="J13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="39" t="n">
+      <c r="K13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="39" t="n">
+      <c r="L13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="39" t="n">
+      <c r="M13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="39" t="n">
+      <c r="N13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="39" t="n">
+      <c r="O13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P13" s="39" t="n">
+      <c r="P13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="39" t="n">
+      <c r="Q13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="39" t="n">
+      <c r="R13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="S13" s="39" t="n">
+      <c r="S13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="39" t="n">
+      <c r="T13" s="38" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="39" t="n">
+      <c r="E14" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="39" t="n">
+      <c r="F14" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="39" t="n">
+      <c r="G14" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="39" t="n">
+      <c r="F15" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="39" t="n">
+      <c r="G15" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="Q15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="T15" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>169</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="39" t="n">
+      <c r="G16" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="Q16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S16" s="39" t="s">
+      <c r="S16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="E17" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="39" t="n">
+      <c r="F17" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="39" t="n">
+      <c r="G17" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>173</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="39" t="n">
+      <c r="E18" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="39" t="n">
+      <c r="F18" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="39" t="n">
+      <c r="G18" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q18" s="39" t="s">
+      <c r="Q18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="39" t="s">
+      <c r="S18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T18" s="39" t="s">
+      <c r="T18" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>175</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="39" t="n">
+      <c r="N19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="39" t="n">
+      <c r="O19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P19" s="39" t="n">
+      <c r="P19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" s="39" t="n">
+      <c r="Q19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="39" t="n">
+      <c r="R19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="39" t="n">
+      <c r="S19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T19" s="39" t="n">
+      <c r="T19" s="38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -37533,111 +37530,111 @@
       <c r="D20" s="10" t="n">
         <v>8847100562364</v>
       </c>
-      <c r="E20" s="39" t="n">
+      <c r="E20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="39" t="n">
+      <c r="F20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="39" t="n">
+      <c r="G20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="39" t="n">
+      <c r="H20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="39" t="n">
+      <c r="I20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="39" t="n">
+      <c r="J20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K20" s="39" t="n">
+      <c r="K20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L20" s="39" t="n">
+      <c r="L20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M20" s="39" t="n">
+      <c r="M20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N20" s="39" t="n">
+      <c r="N20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="39" t="n">
+      <c r="O20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="39" t="n">
+      <c r="P20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" s="39" t="n">
+      <c r="Q20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="39" t="n">
+      <c r="R20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S20" s="39" t="n">
+      <c r="S20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T20" s="39" t="n">
+      <c r="T20" s="38" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="36" t="s">
+    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="39" t="n">
+      <c r="E21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="39" t="n">
+      <c r="F21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="39" t="n">
+      <c r="G21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="39" t="n">
+      <c r="H21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="39" t="n">
+      <c r="I21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="39" t="n">
+      <c r="J21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K21" s="39" t="n">
+      <c r="K21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="39" t="n">
+      <c r="L21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M21" s="39" t="n">
+      <c r="M21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="39" t="n">
+      <c r="N21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="39" t="n">
+      <c r="O21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P21" s="39" t="n">
+      <c r="P21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="39" t="n">
+      <c r="Q21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="39" t="n">
+      <c r="R21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S21" s="39" t="n">
+      <c r="S21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T21" s="39" t="n">
+      <c r="T21" s="38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37671,22 +37668,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.26315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.51417004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.89878542510122"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.24696356275304"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37796,7 +37793,7 @@
       <c r="I5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="33" t="s">
@@ -37820,7 +37817,7 @@
       <c r="Q5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="34" t="s">
         <v>147</v>
       </c>
     </row>
@@ -38007,32 +38004,32 @@
   </sheetPr>
   <dimension ref="B1:S12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.4453441295547"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.89878542510122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.64777327935223"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.51417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.64777327935223"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38149,7 +38146,7 @@
       <c r="J5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="33" t="s">
         <v>139</v>
       </c>
       <c r="L5" s="33" t="s">
@@ -38173,7 +38170,7 @@
       <c r="R5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="34" t="s">
         <v>147</v>
       </c>
     </row>

--- a/Projects/CCKH_SAND/Data/Template.xlsx
+++ b/Projects/CCKH_SAND/Data/Template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -980,6 +980,18 @@
     <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943</t>
   </si>
   <si>
+    <t xml:space="preserve">Schweppe (Can) Single Serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppe Soda 330ml,Schweppe Sarsi 330ml,Schweppe Tonic 330ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100563897,8847100566768,8847100566560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
   </si>
 </sst>
@@ -1073,7 +1085,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1208,6 +1220,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top style="medium"/>
@@ -1307,21 +1333,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -1372,7 +1384,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1529,10 +1541,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1541,35 +1549,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="19" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="19" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1577,11 +1589,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="21" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="20" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1589,7 +1613,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="23" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1597,31 +1621,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="5" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="14" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1641,11 +1665,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1653,11 +1677,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="23" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,11 +1689,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1677,7 +1701,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1685,35 +1709,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1805,26 +1829,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.2105263157895"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -34542,22 +34566,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:21"/>
+  <dimension ref="1:22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T22" activeCellId="0" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="4.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="21" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.42914979757085"/>
@@ -34565,9 +34589,9 @@
     <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.78542510121457"/>
@@ -36881,13 +36905,13 @@
       <c r="D9" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>154</v>
       </c>
       <c r="H9" s="38" t="n">
@@ -37291,7 +37315,7 @@
       <c r="C16" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="38" t="n">
@@ -37350,7 +37374,7 @@
       <c r="C17" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>172</v>
       </c>
       <c r="E17" s="38" t="n">
@@ -37409,7 +37433,7 @@
       <c r="C18" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>174</v>
       </c>
       <c r="E18" s="38" t="n">
@@ -37468,7 +37492,7 @@
       <c r="C19" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>176</v>
       </c>
       <c r="E19" s="38" t="s">
@@ -37636,6 +37660,65 @@
       </c>
       <c r="T21" s="38" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="N22" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="S22" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" s="44" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -37669,7 +37752,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
@@ -37679,8 +37762,8 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
@@ -37725,9 +37808,9 @@
       <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="42"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -37746,7 +37829,7 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="42"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
@@ -37769,7 +37852,7 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -37778,7 +37861,7 @@
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="47" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -37822,161 +37905,161 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="49" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="48" t="n">
+      <c r="E6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="46" t="n">
+      <c r="F6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="49" t="n">
+      <c r="G6" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="49" t="n">
+      <c r="H6" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="49" t="n">
+      <c r="I6" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="49" t="n">
+      <c r="J6" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="49" t="n">
+      <c r="K6" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="47" t="n">
+      <c r="L6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="47" t="n">
+      <c r="M6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="47" t="n">
+      <c r="N6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="47" t="n">
+      <c r="O6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="47" t="n">
+      <c r="P6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="47" t="n">
+      <c r="Q6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="50" t="n">
+      <c r="R6" s="53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="52" t="n">
+      <c r="C7" s="55" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="53" t="n">
+      <c r="D7" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="54" t="n">
+      <c r="E7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="52" t="n">
+      <c r="F7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="55" t="n">
+      <c r="G7" s="58" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="55" t="n">
+      <c r="H7" s="58" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="55" t="n">
+      <c r="I7" s="58" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="55" t="n">
+      <c r="J7" s="58" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="55" t="n">
+      <c r="K7" s="58" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="53" t="n">
+      <c r="L7" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="53" t="n">
+      <c r="M7" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="53" t="n">
+      <c r="N7" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="53" t="n">
+      <c r="O7" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="53" t="n">
+      <c r="P7" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="53" t="n">
+      <c r="Q7" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="56" t="n">
+      <c r="R7" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="58" t="n">
+      <c r="C8" s="61" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="60" t="n">
+      <c r="E8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="58" t="n">
+      <c r="F8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="61" t="n">
+      <c r="G8" s="64" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="61" t="n">
+      <c r="H8" s="64" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="61" t="n">
+      <c r="I8" s="64" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="61" t="n">
+      <c r="J8" s="64" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="61" t="n">
+      <c r="K8" s="64" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="59" t="n">
+      <c r="L8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="59" t="n">
+      <c r="M8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="59" t="n">
+      <c r="N8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="59" t="n">
+      <c r="O8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="59" t="n">
+      <c r="P8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="59" t="n">
+      <c r="Q8" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="62" t="n">
+      <c r="R8" s="65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38011,24 +38094,24 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.49797570850202"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.4615384615385"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.60728744939271"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -38073,10 +38156,10 @@
       <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -38095,8 +38178,8 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="42"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="26" t="s">
         <v>128</v>
       </c>
@@ -38119,13 +38202,13 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="69" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -38175,394 +38258,394 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="69" t="n">
+      <c r="D6" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="69" t="n">
+      <c r="E6" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="70" t="n">
+      <c r="F6" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="71" t="n">
+      <c r="G6" s="74" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="69" t="n">
+      <c r="H6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="69" t="n">
+      <c r="I6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="69" t="n">
+      <c r="J6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="69" t="n">
+      <c r="K6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="69" t="n">
+      <c r="L6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="72" t="n">
+      <c r="M6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="72" t="n">
+      <c r="N6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="72" t="n">
+      <c r="O6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="72" t="n">
+      <c r="P6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="72" t="n">
+      <c r="Q6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="72" t="n">
+      <c r="R6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="73" t="n">
+      <c r="S6" s="76" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="69" t="n">
+      <c r="D7" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="69" t="n">
+      <c r="E7" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="70" t="n">
+      <c r="F7" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="71" t="n">
+      <c r="G7" s="74" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="69" t="n">
+      <c r="H7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="69" t="n">
+      <c r="I7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="69" t="n">
+      <c r="J7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="69" t="n">
+      <c r="K7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="69" t="n">
+      <c r="L7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="72" t="n">
+      <c r="M7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="72" t="n">
+      <c r="N7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="72" t="n">
+      <c r="O7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="72" t="n">
+      <c r="P7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="72" t="n">
+      <c r="Q7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="72" t="n">
+      <c r="R7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="73" t="n">
+      <c r="S7" s="76" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="69" t="n">
+      <c r="D8" s="72" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="69" t="n">
+      <c r="E8" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="70" t="n">
+      <c r="F8" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="71" t="n">
+      <c r="G8" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="69" t="n">
+      <c r="H8" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="69" t="n">
+      <c r="I8" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="69" t="n">
+      <c r="J8" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="69" t="n">
+      <c r="K8" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="69" t="n">
+      <c r="L8" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="72" t="n">
+      <c r="M8" s="75" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="72" t="n">
+      <c r="N8" s="75" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="72" t="n">
+      <c r="O8" s="75" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="72" t="n">
+      <c r="P8" s="75" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="72" t="n">
+      <c r="Q8" s="75" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="72" t="n">
+      <c r="R8" s="75" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="73" t="n">
+      <c r="S8" s="76" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="70" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="69" t="n">
+      <c r="D9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="69" t="n">
+      <c r="E9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="70" t="n">
+      <c r="F9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="71" t="n">
+      <c r="G9" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="69" t="n">
+      <c r="H9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="69" t="n">
+      <c r="I9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="69" t="n">
+      <c r="J9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="69" t="n">
+      <c r="K9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="69" t="n">
+      <c r="L9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="72" t="n">
+      <c r="M9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="72" t="n">
+      <c r="N9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="72" t="n">
+      <c r="O9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="72" t="n">
+      <c r="P9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="72" t="n">
+      <c r="Q9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="72" t="n">
+      <c r="R9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="73" t="n">
+      <c r="S9" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="69" t="n">
+      <c r="D10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="69" t="n">
+      <c r="E10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="70" t="n">
+      <c r="F10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="71" t="n">
+      <c r="G10" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="69" t="n">
+      <c r="H10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="69" t="n">
+      <c r="I10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="69" t="n">
+      <c r="J10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="69" t="n">
+      <c r="K10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="69" t="n">
+      <c r="L10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="72" t="n">
+      <c r="M10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="72" t="n">
+      <c r="N10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="72" t="n">
+      <c r="O10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="72" t="n">
+      <c r="P10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="72" t="n">
+      <c r="Q10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="72" t="n">
+      <c r="R10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="73" t="n">
+      <c r="S10" s="76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="69" t="n">
+      <c r="D11" s="72" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="69" t="n">
+      <c r="E11" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="70" t="n">
+      <c r="F11" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="76" t="n">
+      <c r="G11" s="79" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="77" t="n">
+      <c r="H11" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="77" t="n">
+      <c r="I11" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="77" t="n">
+      <c r="J11" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="77" t="n">
+      <c r="K11" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="77" t="n">
+      <c r="L11" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="77" t="n">
+      <c r="M11" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="77" t="n">
+      <c r="N11" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="77" t="n">
+      <c r="O11" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="77" t="n">
+      <c r="P11" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="77" t="n">
+      <c r="Q11" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="77" t="n">
+      <c r="R11" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="78" t="n">
+      <c r="S11" s="81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="80" t="n">
+      <c r="D12" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="80" t="n">
+      <c r="E12" s="83" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="81" t="n">
+      <c r="F12" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="82" t="n">
+      <c r="G12" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="83" t="n">
+      <c r="H12" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="83" t="n">
+      <c r="I12" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="83" t="n">
+      <c r="J12" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="83" t="n">
+      <c r="K12" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="83" t="n">
+      <c r="L12" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="84" t="s">
+      <c r="N12" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="84" t="s">
+      <c r="O12" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="84" t="s">
+      <c r="P12" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="84" t="s">
+      <c r="Q12" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="88" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/CCKH_SAND/Data/Template.xlsx
+++ b/Projects/CCKH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="178">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -884,22 +884,94 @@
     <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml, Coke ESP 330ml</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml, Coke ESP 330ml,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola Coffee 330ml</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100562395</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sprite Zero 330ml Can</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">8851959905944,8847100562104,8847100561459,8847100563736,8847100568793</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8851959905944,8847100562104,8847100561459,8847100563736,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100562364</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560094,8847100561244,8847100564603,8847100905883,8847100567376</t>
+    <t xml:space="preserve">8847100560094,8847100561244,8847100564603</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -908,19 +980,45 @@
     <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100567352,8847100564184,8847100564061,8847100905883,8847100568793</t>
+    <t xml:space="preserve">8847100564184,8847100564061</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Grape  330ml</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Redberry 330ml,Fanta Blueberry 330ml,Samurai Strawberry 480ml,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mutant Green 330ml Can, Mutant Black 330ml Can,Mutant Green 400ml PET,Mutant Yellow 400ml PET,Mutant Red 330ml Can,Mutant Red 400ml PET</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">8847100560117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,8847100566867,8847100567864</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943,8847100565952</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PET,Dasani 550ml,Dasani Mineral 500ml</t>
@@ -947,10 +1045,10 @@
     <t xml:space="preserve">8847100564849,8851959905982,8847100560902</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Orange 1.5L</t>
+    <t xml:space="preserve">Fanta Orange 1.5L,Fanta Orange 2.25L</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560896</t>
+    <t xml:space="preserve">8847100560896,8847100560926</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Fruit Punch 600ml,Fanta Fruit Punch 1.5L</t>
@@ -963,21 +1061,6 @@
   </si>
   <si>
     <t xml:space="preserve">8847100563149,8847100568830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange 330ml,Fanta Fruit Punch 330ml,Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml,Fanta Orange 390ml,Fanta Fruit Punch 390ml,Fanta Orange 500ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100560094,8847100567352,8847100560117,8847100561329,8847100568588,8847100568175,8847100561244,8847100564184,8847100564603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite Zero 330ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutant Green 330ml Can,Mutant Black 330ml Can,Mutant Green 400ml PET,Mutant Yellow 400ml PET,Mutant Red 330ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943</t>
   </si>
   <si>
     <t xml:space="preserve">Schweppe (Can) Single Serve</t>
@@ -1007,7 +1090,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1084,7 +1167,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1384,7 +1478,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1541,6 +1635,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,11 +1655,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1713,7 +1819,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1824,31 +1930,31 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="1" sqref="E15:G17 A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="78.6234817813765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -34566,32 +34672,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:22"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T22" activeCellId="0" sqref="T22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="4.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="21" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="21" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.78542510121457"/>
@@ -36718,7 +36823,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
@@ -36777,7 +36882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
@@ -36836,7 +36941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="35" t="s">
         <v>31</v>
       </c>
@@ -36895,7 +37000,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="35" t="s">
         <v>33</v>
       </c>
@@ -36954,14 +37059,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="36" t="s">
+    <row r="10" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="41" t="s">
         <v>158</v>
       </c>
       <c r="E10" s="38" t="n">
@@ -37013,9 +37118,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>159</v>
@@ -37072,9 +37177,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>161</v>
@@ -37083,57 +37188,57 @@
         <v>162</v>
       </c>
       <c r="E12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T12" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>163</v>
@@ -37142,57 +37247,57 @@
         <v>164</v>
       </c>
       <c r="E13" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" s="38" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="T13" s="38" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>165</v>
@@ -37249,24 +37354,24 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="38" t="n">
-        <v>3</v>
+      <c r="E15" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>154</v>
@@ -37308,24 +37413,24 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="38" t="n">
-        <v>3</v>
+      <c r="E16" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>154</v>
@@ -37367,24 +37472,24 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="38" t="n">
-        <v>3</v>
+      <c r="E17" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>154</v>
@@ -37426,301 +37531,69 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="36" t="s">
+    <row r="18" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="N18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="P18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="R18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="S18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="T18" s="38" t="s">
-        <v>154</v>
+      <c r="D18" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="N18" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="S18" s="46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" s="47" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="N19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" s="38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>8847100562364</v>
-      </c>
-      <c r="E20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T20" s="38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T21" s="38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="N22" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="S22" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" s="44" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D4"/>
@@ -37746,13 +37619,13 @@
   <dimension ref="B1:R8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="1" sqref="E15:G17 I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
@@ -37762,8 +37635,8 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
@@ -37808,9 +37681,9 @@
       <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="45"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -37829,7 +37702,7 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="45"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
@@ -37852,7 +37725,7 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -37861,7 +37734,7 @@
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="50" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -37905,161 +37778,161 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="49" t="n">
+      <c r="C6" s="52" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="50" t="n">
+      <c r="D6" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="51" t="n">
+      <c r="E6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="49" t="n">
+      <c r="F6" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="52" t="n">
+      <c r="G6" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="52" t="n">
+      <c r="H6" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="52" t="n">
+      <c r="I6" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="52" t="n">
+      <c r="J6" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="52" t="n">
+      <c r="K6" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="50" t="n">
+      <c r="L6" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="50" t="n">
+      <c r="M6" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="50" t="n">
+      <c r="N6" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="50" t="n">
+      <c r="O6" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="50" t="n">
+      <c r="P6" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="50" t="n">
+      <c r="Q6" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="53" t="n">
+      <c r="R6" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="55" t="n">
+      <c r="C7" s="58" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="56" t="n">
+      <c r="D7" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="57" t="n">
+      <c r="E7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="55" t="n">
+      <c r="F7" s="58" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="58" t="n">
+      <c r="G7" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="58" t="n">
+      <c r="H7" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="58" t="n">
+      <c r="I7" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="58" t="n">
+      <c r="J7" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="58" t="n">
+      <c r="K7" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="56" t="n">
+      <c r="L7" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="56" t="n">
+      <c r="M7" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="56" t="n">
+      <c r="N7" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="56" t="n">
+      <c r="O7" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="56" t="n">
+      <c r="P7" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="56" t="n">
+      <c r="Q7" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="59" t="n">
+      <c r="R7" s="62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="61" t="n">
+      <c r="C8" s="64" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="62" t="n">
+      <c r="D8" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="63" t="n">
+      <c r="E8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="61" t="n">
+      <c r="F8" s="64" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="64" t="n">
+      <c r="G8" s="67" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="64" t="n">
+      <c r="H8" s="67" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="64" t="n">
+      <c r="I8" s="67" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="64" t="n">
+      <c r="J8" s="67" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="64" t="n">
+      <c r="K8" s="67" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="62" t="n">
+      <c r="L8" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="62" t="n">
+      <c r="M8" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="62" t="n">
+      <c r="N8" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="62" t="n">
+      <c r="O8" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="62" t="n">
+      <c r="P8" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="62" t="n">
+      <c r="Q8" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="65" t="n">
+      <c r="R8" s="68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38088,30 +37961,28 @@
   <dimension ref="B1:S12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
+      <selection pane="topLeft" activeCell="K32" activeCellId="1" sqref="E15:G17 K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -38156,10 +38027,10 @@
       <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -38178,8 +38049,8 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="45"/>
-      <c r="C4" s="66"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="26" t="s">
         <v>128</v>
       </c>
@@ -38202,13 +38073,13 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="72" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -38258,394 +38129,394 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="72" t="n">
+      <c r="D6" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="72" t="n">
+      <c r="E6" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="73" t="n">
+      <c r="F6" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="74" t="n">
+      <c r="G6" s="77" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="72" t="n">
+      <c r="H6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="72" t="n">
+      <c r="I6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="72" t="n">
+      <c r="J6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="72" t="n">
+      <c r="K6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="72" t="n">
+      <c r="L6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="75" t="n">
+      <c r="M6" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="75" t="n">
+      <c r="N6" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="75" t="n">
+      <c r="O6" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="75" t="n">
+      <c r="P6" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="75" t="n">
+      <c r="Q6" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="75" t="n">
+      <c r="R6" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="76" t="n">
+      <c r="S6" s="79" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="72" t="n">
+      <c r="D7" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="72" t="n">
+      <c r="E7" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="73" t="n">
+      <c r="F7" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="74" t="n">
+      <c r="G7" s="77" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="72" t="n">
+      <c r="H7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="72" t="n">
+      <c r="I7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="72" t="n">
+      <c r="J7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="72" t="n">
+      <c r="K7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="72" t="n">
+      <c r="L7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="75" t="n">
+      <c r="M7" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="75" t="n">
+      <c r="N7" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="75" t="n">
+      <c r="O7" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="75" t="n">
+      <c r="P7" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="75" t="n">
+      <c r="Q7" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="75" t="n">
+      <c r="R7" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="76" t="n">
+      <c r="S7" s="79" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="72" t="n">
+      <c r="D8" s="75" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="72" t="n">
+      <c r="E8" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="73" t="n">
+      <c r="F8" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="74" t="n">
+      <c r="G8" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="72" t="n">
+      <c r="H8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="72" t="n">
+      <c r="I8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="72" t="n">
+      <c r="J8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="72" t="n">
+      <c r="K8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="72" t="n">
+      <c r="L8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="75" t="n">
+      <c r="M8" s="78" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="75" t="n">
+      <c r="N8" s="78" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="75" t="n">
+      <c r="O8" s="78" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="75" t="n">
+      <c r="P8" s="78" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="75" t="n">
+      <c r="Q8" s="78" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="75" t="n">
+      <c r="R8" s="78" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="76" t="n">
+      <c r="S8" s="79" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="73" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="72" t="n">
+      <c r="D9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="72" t="n">
+      <c r="E9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="73" t="n">
+      <c r="F9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="74" t="n">
+      <c r="G9" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="72" t="n">
+      <c r="H9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="72" t="n">
+      <c r="I9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="72" t="n">
+      <c r="J9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="72" t="n">
+      <c r="K9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="72" t="n">
+      <c r="L9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="75" t="n">
+      <c r="M9" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="75" t="n">
+      <c r="N9" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="75" t="n">
+      <c r="O9" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="75" t="n">
+      <c r="P9" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="75" t="n">
+      <c r="Q9" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="75" t="n">
+      <c r="R9" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="76" t="n">
+      <c r="S9" s="79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="72" t="n">
+      <c r="D10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="72" t="n">
+      <c r="E10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="73" t="n">
+      <c r="F10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="74" t="n">
+      <c r="G10" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="72" t="n">
+      <c r="H10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="72" t="n">
+      <c r="I10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="72" t="n">
+      <c r="J10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="72" t="n">
+      <c r="K10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="72" t="n">
+      <c r="L10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="75" t="n">
+      <c r="M10" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="75" t="n">
+      <c r="N10" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="75" t="n">
+      <c r="O10" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="75" t="n">
+      <c r="P10" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="75" t="n">
+      <c r="Q10" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="75" t="n">
+      <c r="R10" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="76" t="n">
+      <c r="S10" s="79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="72" t="n">
+      <c r="D11" s="75" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="72" t="n">
+      <c r="E11" s="75" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="73" t="n">
+      <c r="F11" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="79" t="n">
+      <c r="G11" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="80" t="n">
+      <c r="H11" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="80" t="n">
+      <c r="I11" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="80" t="n">
+      <c r="J11" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="80" t="n">
+      <c r="K11" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="80" t="n">
+      <c r="L11" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="80" t="n">
+      <c r="M11" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="80" t="n">
+      <c r="N11" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="80" t="n">
+      <c r="O11" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="80" t="n">
+      <c r="P11" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="80" t="n">
+      <c r="Q11" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="80" t="n">
+      <c r="R11" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="81" t="n">
+      <c r="S11" s="84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="83" t="n">
+      <c r="D12" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="83" t="n">
+      <c r="E12" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="84" t="n">
+      <c r="F12" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="85" t="n">
+      <c r="G12" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="86" t="n">
+      <c r="H12" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="86" t="n">
+      <c r="I12" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="86" t="n">
+      <c r="J12" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="86" t="n">
+      <c r="K12" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="86" t="n">
+      <c r="L12" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="87" t="s">
+      <c r="N12" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="87" t="s">
+      <c r="O12" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="87" t="s">
+      <c r="P12" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="87" t="s">
+      <c r="Q12" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="87" t="s">
+      <c r="R12" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="88" t="s">
+      <c r="S12" s="91" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/CCKH_SAND/Data/Template.xlsx
+++ b/Projects/CCKH_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1168,7 +1168,34 @@
     <t xml:space="preserve">8847100561091,8847100561152</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquarius 330ml Can, Aquarius 330ml Sleek Can,Aquarius 390ml PET, Aquarius Veggies 330ml Can,Aquarius 330ml_C X24PACK, Aquarius 390ml_C X24PACK</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Aquarius 480ml PET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aquarius 330ml Can, Aquarius 330ml Sleek Can,Aquarius 390ml PET, Aquarius Veggies 330ml Can,Aquarius 330ml_C X24PACK, Aquarius 390ml_C X24PACK</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">8847100561237,8847100568960,8847100563170,8847100562272,8847100568960_C,8847100563170_C</t>
@@ -1207,7 +1234,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1307,6 +1334,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1512,7 +1551,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1685,19 +1724,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1733,7 +1776,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1871,23 +1914,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3746,97 +3789,97 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW6" activeCellId="0" sqref="AW6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="116.651821862348"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="140.113360323887"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="117.724696356275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="141.396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="43" min="43" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="22" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="66" min="66" style="22" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1022" min="87" style="22" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
@@ -11809,7 +11852,7 @@
       <c r="B24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="43" t="s">
         <v>262</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -12863,90 +12906,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="85" style="43" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="44" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="44" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="44" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="44" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="44" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="44" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="44" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="44" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="44" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="44" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="44" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="44" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="44" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="44" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="44" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="44" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="44" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="44" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="44" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="44" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="44" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="44" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="44" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="44" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="44" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="44" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="44" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="44" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="44" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="44" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="44" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="44" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="44" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="85" style="44" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,429 +13163,429 @@
       <c r="CF2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="45"/>
-      <c r="CC3" s="45"/>
-      <c r="CD3" s="45"/>
-      <c r="CE3" s="45"/>
-      <c r="CF3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="46"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="46"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="46"/>
+      <c r="BX3" s="46"/>
+      <c r="BY3" s="46"/>
+      <c r="BZ3" s="46"/>
+      <c r="CA3" s="46"/>
+      <c r="CB3" s="46"/>
+      <c r="CC3" s="46"/>
+      <c r="CD3" s="46"/>
+      <c r="CE3" s="46"/>
+      <c r="CF3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="44"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="47"/>
+      <c r="BT4" s="47"/>
+      <c r="BU4" s="47"/>
+      <c r="BV4" s="47"/>
+      <c r="BW4" s="47"/>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="47"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="47"/>
+      <c r="CD4" s="47"/>
+      <c r="CE4" s="47"/>
+      <c r="CF4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="V5" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="X5" s="49" t="s">
+      <c r="X5" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" s="49" t="s">
+      <c r="Y5" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" s="49" t="s">
+      <c r="Z5" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="AA5" s="49" t="s">
+      <c r="AA5" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="AB5" s="49" t="s">
+      <c r="AB5" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" s="49" t="s">
+      <c r="AC5" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="AD5" s="49" t="s">
+      <c r="AD5" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="AE5" s="49" t="s">
+      <c r="AE5" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="AF5" s="49" t="s">
+      <c r="AF5" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="AG5" s="49" t="s">
+      <c r="AG5" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="AH5" s="49" t="s">
+      <c r="AH5" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="AI5" s="49" t="s">
+      <c r="AI5" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="AJ5" s="49" t="s">
+      <c r="AJ5" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="AK5" s="49" t="s">
+      <c r="AK5" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="AL5" s="49" t="s">
+      <c r="AL5" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="AM5" s="49" t="s">
+      <c r="AM5" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="AN5" s="49" t="s">
+      <c r="AN5" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="AO5" s="49" t="s">
+      <c r="AO5" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="AP5" s="49" t="s">
+      <c r="AP5" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="AQ5" s="49" t="s">
+      <c r="AQ5" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="AR5" s="49" t="s">
+      <c r="AR5" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="AS5" s="49" t="s">
+      <c r="AS5" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AT5" s="49" t="s">
+      <c r="AT5" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AU5" s="49" t="s">
+      <c r="AU5" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="AV5" s="49" t="s">
+      <c r="AV5" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="AW5" s="49" t="s">
+      <c r="AW5" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="AX5" s="49" t="s">
+      <c r="AX5" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="AY5" s="49" t="s">
+      <c r="AY5" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="AZ5" s="49" t="s">
+      <c r="AZ5" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="BA5" s="49" t="s">
+      <c r="BA5" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="BB5" s="49" t="s">
+      <c r="BB5" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="BC5" s="49" t="s">
+      <c r="BC5" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="BD5" s="49" t="s">
+      <c r="BD5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="BE5" s="49" t="s">
+      <c r="BE5" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="BF5" s="49" t="s">
+      <c r="BF5" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="BG5" s="49" t="s">
+      <c r="BG5" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="BH5" s="49" t="s">
+      <c r="BH5" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="BI5" s="49" t="s">
+      <c r="BI5" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="BJ5" s="49" t="s">
+      <c r="BJ5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="BK5" s="49" t="s">
+      <c r="BK5" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="BL5" s="49" t="s">
+      <c r="BL5" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="BM5" s="49" t="s">
+      <c r="BM5" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="BN5" s="49" t="s">
+      <c r="BN5" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="BO5" s="49" t="s">
+      <c r="BO5" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="BP5" s="49" t="s">
+      <c r="BP5" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="BQ5" s="49" t="s">
+      <c r="BQ5" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="BR5" s="49" t="s">
+      <c r="BR5" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="BS5" s="49" t="s">
+      <c r="BS5" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="BT5" s="49" t="s">
+      <c r="BT5" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="BU5" s="49" t="s">
+      <c r="BU5" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="BV5" s="49" t="s">
+      <c r="BV5" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="BW5" s="49" t="s">
+      <c r="BW5" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="BX5" s="49" t="s">
+      <c r="BX5" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="BY5" s="49" t="s">
+      <c r="BY5" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="BZ5" s="49" t="s">
+      <c r="BZ5" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="CA5" s="49" t="s">
+      <c r="CA5" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="CB5" s="49" t="s">
+      <c r="CB5" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="CC5" s="49" t="s">
+      <c r="CC5" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="CD5" s="49" t="s">
+      <c r="CD5" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="CE5" s="49" t="s">
+      <c r="CE5" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="CF5" s="49" t="s">
+      <c r="CF5" s="50" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13550,250 +13593,250 @@
       <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="52" t="n">
+      <c r="C6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="53" t="n">
+      <c r="D6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="n">
+      <c r="E6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="52" t="n">
+      <c r="F6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="52" t="n">
+      <c r="G6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="52" t="n">
+      <c r="H6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="52" t="n">
+      <c r="I6" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="53" t="n">
+      <c r="L6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="53" t="n">
+      <c r="M6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="53" t="n">
+      <c r="N6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="O6" s="53" t="n">
+      <c r="O6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="P6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="54" t="n">
+      <c r="P6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN6" s="54" t="n">
+      <c r="BN6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO6" s="54" t="n">
+      <c r="BO6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP6" s="54" t="n">
+      <c r="BP6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ6" s="54" t="n">
+      <c r="BQ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR6" s="54" t="n">
+      <c r="BR6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS6" s="54" t="n">
+      <c r="BS6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT6" s="54" t="n">
+      <c r="BT6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU6" s="54" t="n">
+      <c r="BU6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV6" s="54" t="n">
+      <c r="BV6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW6" s="54" t="n">
+      <c r="BW6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX6" s="54" t="n">
+      <c r="BX6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY6" s="54" t="n">
+      <c r="BY6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ6" s="54" t="n">
+      <c r="BZ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA6" s="54" t="n">
+      <c r="CA6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB6" s="54" t="n">
+      <c r="CB6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC6" s="54" t="n">
+      <c r="CC6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD6" s="54" t="n">
+      <c r="CD6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE6" s="54" t="n">
+      <c r="CE6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF6" s="54" t="n">
+      <c r="CF6" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13801,250 +13844,250 @@
       <c r="B7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="52" t="n">
+      <c r="C7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="53" t="n">
+      <c r="D7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="E7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="52" t="n">
+      <c r="F7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="52" t="n">
+      <c r="G7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="52" t="n">
+      <c r="H7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="52" t="n">
+      <c r="I7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="53" t="n">
+      <c r="L7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="53" t="n">
+      <c r="M7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="N7" s="53" t="n">
+      <c r="N7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="O7" s="53" t="n">
+      <c r="O7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="P7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="54" t="n">
+      <c r="P7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN7" s="54" t="n">
+      <c r="BN7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO7" s="54" t="n">
+      <c r="BO7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP7" s="54" t="n">
+      <c r="BP7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ7" s="54" t="n">
+      <c r="BQ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR7" s="54" t="n">
+      <c r="BR7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS7" s="54" t="n">
+      <c r="BS7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT7" s="54" t="n">
+      <c r="BT7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU7" s="54" t="n">
+      <c r="BU7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV7" s="54" t="n">
+      <c r="BV7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW7" s="54" t="n">
+      <c r="BW7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX7" s="54" t="n">
+      <c r="BX7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY7" s="54" t="n">
+      <c r="BY7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ7" s="54" t="n">
+      <c r="BZ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA7" s="54" t="n">
+      <c r="CA7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB7" s="54" t="n">
+      <c r="CB7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC7" s="54" t="n">
+      <c r="CC7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD7" s="54" t="n">
+      <c r="CD7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE7" s="54" t="n">
+      <c r="CE7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF7" s="54" t="n">
+      <c r="CF7" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14052,250 +14095,250 @@
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="52" t="n">
+      <c r="C8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="D8" s="53" t="n">
+      <c r="D8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="E8" s="53" t="n">
+      <c r="E8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="F8" s="52" t="n">
+      <c r="F8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="G8" s="52" t="n">
+      <c r="G8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="H8" s="52" t="n">
+      <c r="H8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="I8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="52" t="n">
+      <c r="I8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="L8" s="53" t="n">
+      <c r="L8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="M8" s="53" t="n">
+      <c r="M8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="N8" s="53" t="n">
+      <c r="N8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="O8" s="53" t="n">
+      <c r="O8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="P8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="53" t="n">
+      <c r="P8" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="S8" s="54" t="n">
+      <c r="S8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="54" t="n">
+      <c r="T8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="U8" s="54" t="n">
+      <c r="U8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="54" t="n">
+      <c r="V8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="54" t="n">
+      <c r="W8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="54" t="n">
+      <c r="Z8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AA8" s="54" t="n">
+      <c r="AA8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AB8" s="54" t="n">
+      <c r="AB8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AC8" s="54" t="n">
+      <c r="AC8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" s="54" t="n">
+      <c r="AD8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AE8" s="54" t="n">
+      <c r="AE8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AF8" s="54" t="n">
+      <c r="AF8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AG8" s="54" t="n">
+      <c r="AG8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AH8" s="54" t="n">
+      <c r="AH8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AI8" s="54" t="n">
+      <c r="AI8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AJ8" s="54" t="n">
+      <c r="AJ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AK8" s="54" t="n">
+      <c r="AK8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" s="54" t="n">
+      <c r="AL8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AM8" s="54" t="n">
+      <c r="AM8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AN8" s="54" t="n">
+      <c r="AN8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AO8" s="54" t="n">
+      <c r="AO8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AP8" s="54" t="n">
+      <c r="AP8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AQ8" s="54" t="n">
+      <c r="AQ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AR8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="54" t="n">
+      <c r="AR8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AT8" s="54" t="n">
+      <c r="AT8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AU8" s="54" t="n">
+      <c r="AU8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AV8" s="54" t="n">
+      <c r="AV8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AW8" s="54" t="n">
+      <c r="AW8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AX8" s="54" t="n">
+      <c r="AX8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AY8" s="54" t="n">
+      <c r="AY8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AZ8" s="54" t="n">
+      <c r="AZ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BA8" s="54" t="n">
+      <c r="BA8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BB8" s="54" t="n">
+      <c r="BB8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BC8" s="54" t="n">
+      <c r="BC8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BD8" s="54" t="n">
+      <c r="BD8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BE8" s="54" t="n">
+      <c r="BE8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BF8" s="54" t="n">
+      <c r="BF8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BG8" s="54" t="n">
+      <c r="BG8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BH8" s="54" t="n">
+      <c r="BH8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BI8" s="54" t="n">
+      <c r="BI8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BJ8" s="54" t="n">
+      <c r="BJ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BK8" s="54" t="n">
+      <c r="BK8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BL8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="54" t="n">
+      <c r="BL8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14323,98 +14366,98 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AV5" activeCellId="0" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="43" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="86" style="43" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="44" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="44" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="44" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="44" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="44" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="44" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="44" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="44" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="44" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="44" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="44" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="44" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="44" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="44" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="44" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="44" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="44" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="44" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="44" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="44" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="44" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="44" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="44" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="44" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="44" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="44" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="44" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="44" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="44" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="44" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="44" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="44" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="44" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="44" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="44" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="44" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="44" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="86" style="44" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16471,92 +16514,92 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="45"/>
-      <c r="CC3" s="45"/>
-      <c r="CD3" s="45"/>
-      <c r="CE3" s="45"/>
-      <c r="CF3" s="45"/>
-      <c r="CG3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="46"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="46"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="46"/>
+      <c r="BX3" s="46"/>
+      <c r="BY3" s="46"/>
+      <c r="BZ3" s="46"/>
+      <c r="CA3" s="46"/>
+      <c r="CB3" s="46"/>
+      <c r="CC3" s="46"/>
+      <c r="CD3" s="46"/>
+      <c r="CE3" s="46"/>
+      <c r="CF3" s="46"/>
+      <c r="CG3" s="46"/>
       <c r="CH3" s="0"/>
       <c r="CI3" s="0"/>
       <c r="CJ3" s="0"/>
@@ -17499,94 +17542,94 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="46" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="47"/>
+      <c r="BT4" s="47"/>
+      <c r="BU4" s="47"/>
+      <c r="BV4" s="47"/>
+      <c r="BW4" s="47"/>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="47"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="47"/>
+      <c r="CD4" s="47"/>
+      <c r="CE4" s="47"/>
+      <c r="CF4" s="47"/>
+      <c r="CG4" s="47"/>
       <c r="CH4" s="0"/>
       <c r="CI4" s="0"/>
       <c r="CJ4" s="0"/>
@@ -18529,259 +18572,259 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="57" t="s">
+      <c r="V5" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="W5" s="57" t="s">
+      <c r="W5" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="X5" s="57" t="s">
+      <c r="X5" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="Y5" s="57" t="s">
+      <c r="Y5" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="Z5" s="57" t="s">
+      <c r="Z5" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" s="57" t="s">
+      <c r="AA5" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" s="57" t="s">
+      <c r="AB5" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="AC5" s="57" t="s">
+      <c r="AC5" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="AD5" s="57" t="s">
+      <c r="AD5" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="AE5" s="57" t="s">
+      <c r="AE5" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="AF5" s="57" t="s">
+      <c r="AF5" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="AG5" s="57" t="s">
+      <c r="AG5" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="AH5" s="57" t="s">
+      <c r="AH5" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="AI5" s="57" t="s">
+      <c r="AI5" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="AJ5" s="57" t="s">
+      <c r="AJ5" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="AK5" s="57" t="s">
+      <c r="AK5" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="AL5" s="57" t="s">
+      <c r="AL5" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="AM5" s="57" t="s">
+      <c r="AM5" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="AN5" s="57" t="s">
+      <c r="AN5" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="AO5" s="57" t="s">
+      <c r="AO5" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="AP5" s="57" t="s">
+      <c r="AP5" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="AQ5" s="57" t="s">
+      <c r="AQ5" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="AR5" s="57" t="s">
+      <c r="AR5" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="AS5" s="57" t="s">
+      <c r="AS5" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="AT5" s="57" t="s">
+      <c r="AT5" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="AU5" s="57" t="s">
+      <c r="AU5" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="AV5" s="57" t="s">
+      <c r="AV5" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="AW5" s="57" t="s">
+      <c r="AW5" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="AX5" s="57" t="s">
+      <c r="AX5" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="AY5" s="57" t="s">
+      <c r="AY5" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="AZ5" s="57" t="s">
+      <c r="AZ5" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="BA5" s="57" t="s">
+      <c r="BA5" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="BB5" s="57" t="s">
+      <c r="BB5" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="BC5" s="57" t="s">
+      <c r="BC5" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="BD5" s="57" t="s">
+      <c r="BD5" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="BE5" s="57" t="s">
+      <c r="BE5" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="BF5" s="57" t="s">
+      <c r="BF5" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="BG5" s="57" t="s">
+      <c r="BG5" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="BH5" s="57" t="s">
+      <c r="BH5" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="BI5" s="57" t="s">
+      <c r="BI5" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="BJ5" s="57" t="s">
+      <c r="BJ5" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="BK5" s="57" t="s">
+      <c r="BK5" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="BL5" s="57" t="s">
+      <c r="BL5" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="BM5" s="57" t="s">
+      <c r="BM5" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="BN5" s="57" t="s">
+      <c r="BN5" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="BO5" s="57" t="s">
+      <c r="BO5" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="BP5" s="57" t="s">
+      <c r="BP5" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="BQ5" s="57" t="s">
+      <c r="BQ5" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="BR5" s="57" t="s">
+      <c r="BR5" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="BS5" s="57" t="s">
+      <c r="BS5" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="BT5" s="57" t="s">
+      <c r="BT5" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="BU5" s="57" t="s">
+      <c r="BU5" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="BV5" s="57" t="s">
+      <c r="BV5" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="BW5" s="57" t="s">
+      <c r="BW5" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="BX5" s="57" t="s">
+      <c r="BX5" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="BY5" s="57" t="s">
+      <c r="BY5" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="BZ5" s="57" t="s">
+      <c r="BZ5" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="CA5" s="57" t="s">
+      <c r="CA5" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="CB5" s="57" t="s">
+      <c r="CB5" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="CC5" s="57" t="s">
+      <c r="CC5" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="CD5" s="57" t="s">
+      <c r="CD5" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="CE5" s="57" t="s">
+      <c r="CE5" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="CF5" s="57" t="s">
+      <c r="CF5" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="CG5" s="57" t="s">
+      <c r="CG5" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="CH5" s="58"/>
+      <c r="CH5" s="59"/>
       <c r="CI5" s="0"/>
       <c r="CJ5" s="0"/>
       <c r="CK5" s="0"/>
@@ -19729,250 +19772,250 @@
       <c r="C6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="59" t="n">
+      <c r="H6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="59" t="n">
+      <c r="I6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="59" t="n">
+      <c r="J6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="60" t="n">
         <v>1.5</v>
       </c>
-      <c r="M6" s="60" t="n">
+      <c r="M6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="N6" s="60" t="n">
+      <c r="N6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6" s="60" t="n">
+      <c r="O6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="P6" s="60" t="n">
+      <c r="P6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="54" t="n">
+      <c r="Q6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO6" s="54" t="n">
+      <c r="BO6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP6" s="54" t="n">
+      <c r="BP6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ6" s="54" t="n">
+      <c r="BQ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR6" s="54" t="n">
+      <c r="BR6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS6" s="54" t="n">
+      <c r="BS6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT6" s="54" t="n">
+      <c r="BT6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU6" s="54" t="n">
+      <c r="BU6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV6" s="54" t="n">
+      <c r="BV6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW6" s="54" t="n">
+      <c r="BW6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX6" s="54" t="n">
+      <c r="BX6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY6" s="54" t="n">
+      <c r="BY6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ6" s="54" t="n">
+      <c r="BZ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA6" s="54" t="n">
+      <c r="CA6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB6" s="54" t="n">
+      <c r="CB6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC6" s="54" t="n">
+      <c r="CC6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD6" s="54" t="n">
+      <c r="CD6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE6" s="54" t="n">
+      <c r="CE6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF6" s="54" t="n">
+      <c r="CF6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CG6" s="54" t="n">
+      <c r="CG6" s="55" t="n">
         <v>1</v>
       </c>
       <c r="CH6" s="0"/>
@@ -20923,250 +20966,250 @@
       <c r="C7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="59" t="n">
+      <c r="E7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="59" t="n">
+      <c r="H7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="59" t="n">
+      <c r="I7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="59" t="n">
+      <c r="J7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="60" t="n">
         <v>1.5</v>
       </c>
-      <c r="M7" s="60" t="n">
+      <c r="M7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="N7" s="60" t="n">
+      <c r="N7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7" s="60" t="n">
+      <c r="O7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="P7" s="60" t="n">
+      <c r="P7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="54" t="n">
+      <c r="Q7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO7" s="54" t="n">
+      <c r="BO7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP7" s="54" t="n">
+      <c r="BP7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ7" s="54" t="n">
+      <c r="BQ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR7" s="54" t="n">
+      <c r="BR7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS7" s="54" t="n">
+      <c r="BS7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT7" s="54" t="n">
+      <c r="BT7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU7" s="54" t="n">
+      <c r="BU7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV7" s="54" t="n">
+      <c r="BV7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW7" s="54" t="n">
+      <c r="BW7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX7" s="54" t="n">
+      <c r="BX7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY7" s="54" t="n">
+      <c r="BY7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ7" s="54" t="n">
+      <c r="BZ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA7" s="54" t="n">
+      <c r="CA7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB7" s="54" t="n">
+      <c r="CB7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC7" s="54" t="n">
+      <c r="CC7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD7" s="54" t="n">
+      <c r="CD7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE7" s="54" t="n">
+      <c r="CE7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF7" s="54" t="n">
+      <c r="CF7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CG7" s="54" t="n">
+      <c r="CG7" s="55" t="n">
         <v>1</v>
       </c>
       <c r="CH7" s="0"/>
@@ -22117,250 +22160,250 @@
       <c r="C8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="60" t="n">
+      <c r="D8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="54" t="n">
+      <c r="T8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="U8" s="54" t="n">
+      <c r="U8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="54" t="n">
+      <c r="V8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="54" t="n">
+      <c r="W8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="X8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="54" t="n">
+      <c r="X8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA8" s="54" t="n">
+      <c r="AA8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB8" s="54" t="n">
+      <c r="AB8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC8" s="54" t="n">
+      <c r="AC8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AD8" s="54" t="n">
+      <c r="AD8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE8" s="54" t="n">
+      <c r="AE8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF8" s="54" t="n">
+      <c r="AF8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG8" s="54" t="n">
+      <c r="AG8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH8" s="54" t="n">
+      <c r="AH8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI8" s="54" t="n">
+      <c r="AI8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AJ8" s="54" t="n">
+      <c r="AJ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK8" s="54" t="n">
+      <c r="AK8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL8" s="54" t="n">
+      <c r="AL8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AM8" s="54" t="n">
+      <c r="AM8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN8" s="54" t="n">
+      <c r="AN8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO8" s="54" t="n">
+      <c r="AO8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AP8" s="54" t="n">
+      <c r="AP8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AQ8" s="54" t="n">
+      <c r="AQ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AR8" s="54" t="n">
+      <c r="AR8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="54" t="n">
+      <c r="AS8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU8" s="54" t="n">
+      <c r="AU8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AV8" s="54" t="n">
+      <c r="AV8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AW8" s="54" t="n">
+      <c r="AW8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AX8" s="54" t="n">
+      <c r="AX8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AY8" s="54" t="n">
+      <c r="AY8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AZ8" s="54" t="n">
+      <c r="AZ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BA8" s="54" t="n">
+      <c r="BA8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB8" s="54" t="n">
+      <c r="BB8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BC8" s="54" t="n">
+      <c r="BC8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BD8" s="54" t="n">
+      <c r="BD8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BE8" s="54" t="n">
+      <c r="BE8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BF8" s="54" t="n">
+      <c r="BF8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BG8" s="54" t="n">
+      <c r="BG8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH8" s="54" t="n">
+      <c r="BH8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BI8" s="54" t="n">
+      <c r="BI8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BJ8" s="54" t="n">
+      <c r="BJ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BK8" s="54" t="n">
+      <c r="BK8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BL8" s="54" t="n">
+      <c r="BL8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="54" t="n">
+      <c r="BM8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="55" t="n">
         <v>1</v>
       </c>
       <c r="CH8" s="0"/>
@@ -23303,260 +23346,260 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="62" t="s">
+    <row r="9" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="64" t="n">
+      <c r="D9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="64" t="n">
+      <c r="E9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="64" t="n">
+      <c r="F9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="64" t="n">
+      <c r="G9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="64" t="n">
+      <c r="H9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="64" t="n">
+      <c r="I9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="64" t="n">
+      <c r="J9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="64" t="n">
+      <c r="K9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="64" t="n">
+      <c r="L9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="65" t="n">
+      <c r="M9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="65" t="n">
+      <c r="N9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="65" t="n">
+      <c r="O9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="65" t="n">
+      <c r="P9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="65" t="n">
+      <c r="Q9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="65" t="n">
+      <c r="R9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="65" t="n">
+      <c r="S9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="T9" s="66" t="n">
+      <c r="T9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="U9" s="66" t="n">
+      <c r="U9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="66" t="n">
+      <c r="V9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="66" t="n">
+      <c r="W9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="X9" s="66" t="n">
+      <c r="X9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="66" t="n">
+      <c r="Y9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" s="66" t="n">
+      <c r="Z9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="66" t="n">
+      <c r="AA9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="66" t="n">
+      <c r="AB9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="66" t="n">
+      <c r="AC9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="66" t="n">
+      <c r="AD9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="66" t="n">
+      <c r="AE9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" s="66" t="n">
+      <c r="AF9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="66" t="n">
+      <c r="AG9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="66" t="n">
+      <c r="AH9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" s="66" t="n">
+      <c r="AI9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" s="66" t="n">
+      <c r="AJ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="66" t="n">
+      <c r="AK9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" s="66" t="n">
+      <c r="AL9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="66" t="n">
+      <c r="AM9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="66" t="n">
+      <c r="AN9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" s="66" t="n">
+      <c r="AO9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="66" t="n">
+      <c r="AP9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AQ9" s="66" t="n">
+      <c r="AQ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AR9" s="66" t="n">
+      <c r="AR9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="66" t="n">
+      <c r="AS9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="66" t="n">
+      <c r="AT9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="66" t="n">
+      <c r="AU9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="66" t="n">
+      <c r="AV9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="66" t="n">
+      <c r="AW9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="66" t="n">
+      <c r="AX9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="66" t="n">
+      <c r="AY9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="66" t="n">
+      <c r="AZ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BA9" s="66" t="n">
+      <c r="BA9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BB9" s="66" t="n">
+      <c r="BB9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BC9" s="66" t="n">
+      <c r="BC9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BD9" s="66" t="n">
+      <c r="BD9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BE9" s="66" t="n">
+      <c r="BE9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BF9" s="66" t="n">
+      <c r="BF9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BG9" s="66" t="n">
+      <c r="BG9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BH9" s="66" t="n">
+      <c r="BH9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BI9" s="66" t="n">
+      <c r="BI9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BJ9" s="66" t="n">
+      <c r="BJ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BK9" s="66" t="n">
+      <c r="BK9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BL9" s="66" t="n">
+      <c r="BL9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BM9" s="66" t="n">
+      <c r="BM9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BN9" s="66" t="n">
+      <c r="BN9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BO9" s="66" t="n">
+      <c r="BO9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BP9" s="66" t="n">
+      <c r="BP9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BQ9" s="66" t="n">
+      <c r="BQ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BR9" s="66" t="n">
+      <c r="BR9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BS9" s="66" t="n">
+      <c r="BS9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BT9" s="66" t="n">
+      <c r="BT9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BU9" s="66" t="n">
+      <c r="BU9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BV9" s="66" t="n">
+      <c r="BV9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BW9" s="66" t="n">
+      <c r="BW9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BX9" s="66" t="n">
+      <c r="BX9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BY9" s="66" t="n">
+      <c r="BY9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BZ9" s="66" t="n">
+      <c r="BZ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CA9" s="66" t="n">
+      <c r="CA9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CB9" s="66" t="n">
+      <c r="CB9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CC9" s="66" t="n">
+      <c r="CC9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CD9" s="66" t="n">
+      <c r="CD9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CE9" s="66" t="n">
+      <c r="CE9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CF9" s="66" t="n">
+      <c r="CF9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CG9" s="66" t="n">
+      <c r="CG9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CH9" s="61" t="n">
+      <c r="CH9" s="62" t="n">
         <f aca="false">SUM(D9,CG9)</f>
         <v>0</v>
       </c>
@@ -23568,250 +23611,250 @@
       <c r="C10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="59" t="n">
+      <c r="D10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="59" t="n">
+      <c r="E10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="59" t="n">
+      <c r="F10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="59" t="n">
+      <c r="G10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="59" t="n">
+      <c r="H10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="59" t="n">
+      <c r="I10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="59" t="n">
+      <c r="J10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="59" t="n">
+      <c r="K10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="59" t="n">
+      <c r="L10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="60" t="n">
+      <c r="M10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="60" t="n">
+      <c r="N10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="60" t="n">
+      <c r="O10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="60" t="n">
+      <c r="P10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="60" t="n">
+      <c r="Q10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="60" t="n">
+      <c r="R10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="60" t="n">
+      <c r="S10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="T10" s="54" t="n">
+      <c r="T10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="U10" s="54" t="n">
+      <c r="U10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="54" t="n">
+      <c r="V10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="W10" s="54" t="n">
+      <c r="W10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="X10" s="54" t="n">
+      <c r="X10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" s="54" t="n">
+      <c r="Y10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" s="54" t="n">
+      <c r="Z10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" s="54" t="n">
+      <c r="AA10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" s="54" t="n">
+      <c r="AB10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" s="54" t="n">
+      <c r="AC10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" s="54" t="n">
+      <c r="AD10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AE10" s="54" t="n">
+      <c r="AE10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" s="54" t="n">
+      <c r="AF10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG10" s="54" t="n">
+      <c r="AG10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="54" t="n">
+      <c r="AH10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AI10" s="54" t="n">
+      <c r="AI10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" s="54" t="n">
+      <c r="AJ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" s="54" t="n">
+      <c r="AK10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" s="54" t="n">
+      <c r="AL10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" s="54" t="n">
+      <c r="AM10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" s="54" t="n">
+      <c r="AN10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" s="54" t="n">
+      <c r="AO10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AP10" s="54" t="n">
+      <c r="AP10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AQ10" s="54" t="n">
+      <c r="AQ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AR10" s="54" t="n">
+      <c r="AR10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AS10" s="54" t="n">
+      <c r="AS10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" s="54" t="n">
+      <c r="AT10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AU10" s="54" t="n">
+      <c r="AU10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AV10" s="54" t="n">
+      <c r="AV10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AW10" s="54" t="n">
+      <c r="AW10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AX10" s="54" t="n">
+      <c r="AX10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AY10" s="54" t="n">
+      <c r="AY10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AZ10" s="54" t="n">
+      <c r="AZ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BA10" s="54" t="n">
+      <c r="BA10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BB10" s="54" t="n">
+      <c r="BB10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BC10" s="54" t="n">
+      <c r="BC10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BD10" s="54" t="n">
+      <c r="BD10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BE10" s="54" t="n">
+      <c r="BE10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BF10" s="54" t="n">
+      <c r="BF10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BG10" s="54" t="n">
+      <c r="BG10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BH10" s="54" t="n">
+      <c r="BH10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BI10" s="54" t="n">
+      <c r="BI10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BJ10" s="54" t="n">
+      <c r="BJ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BK10" s="54" t="n">
+      <c r="BK10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BL10" s="54" t="n">
+      <c r="BL10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BM10" s="54" t="n">
+      <c r="BM10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BN10" s="54" t="n">
+      <c r="BN10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BO10" s="54" t="n">
+      <c r="BO10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BP10" s="54" t="n">
+      <c r="BP10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BQ10" s="54" t="n">
+      <c r="BQ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BR10" s="54" t="n">
+      <c r="BR10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BS10" s="54" t="n">
+      <c r="BS10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BT10" s="54" t="n">
+      <c r="BT10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BU10" s="54" t="n">
+      <c r="BU10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BV10" s="54" t="n">
+      <c r="BV10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BW10" s="54" t="n">
+      <c r="BW10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BX10" s="54" t="n">
+      <c r="BX10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BY10" s="54" t="n">
+      <c r="BY10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BZ10" s="54" t="n">
+      <c r="BZ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CA10" s="54" t="n">
+      <c r="CA10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CB10" s="54" t="n">
+      <c r="CB10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CC10" s="54" t="n">
+      <c r="CC10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CD10" s="54" t="n">
+      <c r="CD10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CE10" s="54" t="n">
+      <c r="CE10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CF10" s="54" t="n">
+      <c r="CF10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CG10" s="54" t="n">
+      <c r="CG10" s="55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23822,250 +23865,250 @@
       <c r="C11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="67" t="n">
+      <c r="D11" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="T11" s="54" t="n">
+      <c r="T11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="U11" s="54" t="n">
+      <c r="U11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="V11" s="54" t="n">
+      <c r="V11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="W11" s="54" t="n">
+      <c r="W11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="X11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="54" t="n">
+      <c r="X11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA11" s="54" t="n">
+      <c r="AA11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB11" s="54" t="n">
+      <c r="AB11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC11" s="54" t="n">
+      <c r="AC11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AD11" s="54" t="n">
+      <c r="AD11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE11" s="54" t="n">
+      <c r="AE11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF11" s="54" t="n">
+      <c r="AF11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG11" s="54" t="n">
+      <c r="AG11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH11" s="54" t="n">
+      <c r="AH11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI11" s="54" t="n">
+      <c r="AI11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AJ11" s="54" t="n">
+      <c r="AJ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK11" s="54" t="n">
+      <c r="AK11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL11" s="54" t="n">
+      <c r="AL11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AM11" s="54" t="n">
+      <c r="AM11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN11" s="54" t="n">
+      <c r="AN11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO11" s="54" t="n">
+      <c r="AO11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AP11" s="54" t="n">
+      <c r="AP11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AQ11" s="54" t="n">
+      <c r="AQ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AR11" s="54" t="n">
+      <c r="AR11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="54" t="n">
+      <c r="AS11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU11" s="54" t="n">
+      <c r="AU11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AV11" s="54" t="n">
+      <c r="AV11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AW11" s="54" t="n">
+      <c r="AW11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AX11" s="54" t="n">
+      <c r="AX11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AY11" s="54" t="n">
+      <c r="AY11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AZ11" s="54" t="n">
+      <c r="AZ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BA11" s="54" t="n">
+      <c r="BA11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB11" s="54" t="n">
+      <c r="BB11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BC11" s="54" t="n">
+      <c r="BC11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BD11" s="54" t="n">
+      <c r="BD11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BE11" s="54" t="n">
+      <c r="BE11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BF11" s="54" t="n">
+      <c r="BF11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BG11" s="54" t="n">
+      <c r="BG11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH11" s="54" t="n">
+      <c r="BH11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BI11" s="54" t="n">
+      <c r="BI11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BJ11" s="54" t="n">
+      <c r="BJ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BK11" s="54" t="n">
+      <c r="BK11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BL11" s="54" t="n">
+      <c r="BL11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" s="54" t="n">
+      <c r="BM11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24076,250 +24119,250 @@
       <c r="C12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="59" t="n">
+      <c r="D12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="59" t="n">
+      <c r="E12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="67" t="n">
+      <c r="G12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="67" t="n">
+      <c r="H12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="67" t="n">
+      <c r="I12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="67" t="n">
+      <c r="J12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="68" t="n">
         <v>1.5</v>
       </c>
-      <c r="M12" s="60" t="n">
+      <c r="M12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="N12" s="60" t="n">
+      <c r="N12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="O12" s="60" t="n">
+      <c r="O12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="P12" s="60" t="n">
+      <c r="P12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG12" s="54" t="n">
+      <c r="Q12" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="55" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Projects/CCKH_SAND/Data/Template.xlsx
+++ b/Projects/CCKH_SAND/Data/Template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="AVAILABILITY" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="VISIBILITY" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="COOLER" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="COOLER" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="VISIBILITY" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" name="Apples" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="Bananas" vbProcedure="false">#REF!</definedName>
@@ -37,29 +37,32 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">VISIBILITY!$B$5:$F$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">VISIBILITY!$B$5:$F$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -266,7 +269,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">តើសំភារៈទីផ្សារដែលត្រូវមាន និងកំពុងផ្សព្វផ្សាយសម្រាប់បង្អូចថ្មី - ក្រុមក្លាហានឬទេ</t>
     </r>
@@ -277,7 +279,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?</t>
     </r>
@@ -302,7 +303,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">តើសំភារៈទីផ្សារដែលត្រូវមាន និងកំពុងផ្សព្វផ្សាយសម្រាប់បង្អូចថ្មី - ក្រុមប្រយុទ្ឋឬទេ</t>
     </r>
@@ -313,7 +313,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?</t>
     </r>
@@ -335,7 +334,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">តើមានស្លាកតំលៃផលិតផលកូកា-កូឡា យ៉ាងតិចចំនួន០១ នៅលើធ្នើរនៃទូរទឹកកក​ឬទេ</t>
     </r>
@@ -346,7 +344,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?</t>
     </r>
@@ -371,7 +368,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">តើទូរទឹកកកនៅកន្លែងដែលអាចមើលឃើញពីកន្លែងភាគច្រើននៃហាងឬទេ</t>
     </r>
@@ -382,7 +378,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?</t>
     </r>
@@ -401,7 +396,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">តើទូរទឹកកកបើកប្រើប្រាស់(ដំណើរការ)ជានិច្ចឬទេ</t>
     </r>
@@ -412,7 +406,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?</t>
     </r>
@@ -517,7 +510,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">តើទូរទឹកកកកូកា-កូឡានៅក្នុងហាងនេះ ចូលរួមកម្មវិធី Cooler Club ឬទេ</t>
     </r>
@@ -527,7 +519,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?</t>
     </r>
@@ -548,7 +539,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">សម្ភារៈត្រូវដាក់តាំង </t>
     </r>
@@ -558,7 +548,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Visibility)</t>
     </r>
@@ -570,7 +559,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ទូរទឹកកកក </t>
     </r>
@@ -580,7 +568,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Cooler Space)</t>
     </r>
@@ -592,7 +579,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ផលិតផលដាក់តាំងមិនត្រជាក់ </t>
     </r>
@@ -602,7 +588,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Ambient Space)</t>
     </r>
@@ -617,7 +602,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ពិន្ទុប្រតិបត្តិទីផ្សារ </t>
     </r>
@@ -627,7 +611,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(RED Score)</t>
     </r>
@@ -903,8 +886,7 @@
     <t xml:space="preserve">KH-QSR_Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">Coke 330ml, Coke ARG 330ml
-Coke BRA 330ml, Coke FRA 330ml, Coke GER 330ml, Coke POR 330ml, Coke ESP 330ml, Coke 330ml_Cx24 PACK</t>
+    <t xml:space="preserve">Coke 330ml, Coke ARG 330ml, Coke BRA 330ml, Coke FRA 330ml, Coke GER 330ml, Coke POR 330ml, Coke ESP 330ml, Coke 330ml_Cx24 PACK</t>
   </si>
   <si>
     <t xml:space="preserve">8847100562234,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,8847100562234_C</t>
@@ -986,20 +968,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1021,20 +1003,17 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1042,7 +1021,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1050,14 +1028,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DaunPenh"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1065,40 +1041,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1106,14 +1070,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1121,14 +1083,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1263,22 +1223,22 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1296,212 +1256,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="18" fillId="5" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="5" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1518,83 +1478,159 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+      <protection locked="true" hidden="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1679,29 +1715,29 @@
   </sheetPr>
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3198,21 +3234,19 @@
   </sheetPr>
   <dimension ref="B1:CH19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="E5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2307692307692"/>
-    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="87" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3669,7 +3703,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
@@ -6496,7 +6530,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
@@ -7268,7 +7302,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:CH19"/>
+  <autoFilter ref="B5:CH18"/>
   <mergeCells count="8">
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="E3:CH3"/>
@@ -7331,14 +7365,16 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="19" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <colBreaks count="2" manualBreakCount="2">
+  <colBreaks count="4" manualBreakCount="4">
     <brk id="1" man="true" max="65535" min="0"/>
     <brk id="4" man="true" max="65535" min="0"/>
+    <brk id="36" man="true" max="65535" min="0"/>
+    <brk id="59" man="true" max="65535" min="0"/>
   </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7349,16 +7385,2292 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:CF8"/>
+  <dimension ref="B1:CG13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="AS1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY5" activeCellId="0" sqref="AY5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="4" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.41295546558704"/>
+    <col collapsed="false" hidden="false" max="85" min="25" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="27"/>
+      <c r="BV4" s="27"/>
+      <c r="BW4" s="27"/>
+      <c r="BX4" s="27"/>
+      <c r="BY4" s="27"/>
+      <c r="BZ4" s="27"/>
+      <c r="CA4" s="27"/>
+      <c r="CB4" s="27"/>
+      <c r="CC4" s="27"/>
+      <c r="CD4" s="27"/>
+      <c r="CE4" s="27"/>
+      <c r="CF4" s="27"/>
+      <c r="CG4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG5" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI5" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ5" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL5" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM5" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN5" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO5" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP5" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ5" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR5" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS5" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT5" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU5" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV5" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW5" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY5" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ5" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA5" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB5" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC5" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD5" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF5" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG5" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH5" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="BJ5" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK5" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM5" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="BO5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR5" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS5" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT5" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU5" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV5" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW5" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="BX5" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="BY5" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="BZ5" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="CA5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="CB5" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC5" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="CD5" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE5" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF5" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="CG5" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AI6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AK6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BJ6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BK6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BL6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BM6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AI7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AK7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BI7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BJ7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BK7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BL7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BM7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AX8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AZ8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE8" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BF8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK11" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL11" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AX11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AZ11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE11" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BF11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BM11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD12" s="45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL12" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AM12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BM12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="B5:S5"/>
+  <mergeCells count="8">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:CG3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AM4:BF4"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="BN4:CG4"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="23" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="9" man="true" max="65535" min="0"/>
+    <brk id="24" man="true" max="65535" min="0"/>
+  </colBreaks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:CF8"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="60.8421052631579"/>
     <col collapsed="false" hidden="false" max="84" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.57085020242915"/>
   </cols>
@@ -7370,94 +9682,94 @@
       <c r="B2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="41"/>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="41"/>
-      <c r="CE3" s="41"/>
-      <c r="CF3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="27" t="s">
         <v>124</v>
       </c>
@@ -7554,7 +9866,7 @@
       <c r="CF4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -7808,250 +10120,250 @@
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="43" t="n">
+      <c r="C6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="43" t="n">
+      <c r="J6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="43" t="n">
+      <c r="K6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC6" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK6" s="43" t="n">
+      <c r="AK6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="43" t="n">
+      <c r="AL6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BG6" s="43" t="n">
+      <c r="BG6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BH6" s="43" t="n">
+      <c r="BH6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BI6" s="43" t="n">
+      <c r="BI6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BJ6" s="43" t="n">
+      <c r="BJ6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK6" s="43" t="n">
+      <c r="BK6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL6" s="43" t="n">
+      <c r="BL6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="43" t="n">
+      <c r="BM6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,250 +10371,250 @@
       <c r="B7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="43" t="n">
+      <c r="C7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="43" t="n">
+      <c r="J7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="43" t="n">
+      <c r="K7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC7" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK7" s="43" t="n">
+      <c r="AK7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="43" t="n">
+      <c r="AL7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BG7" s="43" t="n">
+      <c r="BG7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BH7" s="43" t="n">
+      <c r="BH7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BI7" s="43" t="n">
+      <c r="BI7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BJ7" s="43" t="n">
+      <c r="BJ7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK7" s="43" t="n">
+      <c r="BK7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="43" t="n">
+      <c r="BL7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="43" t="n">
+      <c r="BM7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8310,250 +10622,250 @@
       <c r="B8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="43" t="n">
+      <c r="D8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="43" t="n">
+      <c r="F8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="43" t="n">
+      <c r="G8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="43" t="n">
+      <c r="H8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="43" t="n">
+      <c r="I8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M8" s="43" t="n">
+      <c r="L8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="N8" s="43" t="n">
+      <c r="N8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="O8" s="43" t="n">
+      <c r="O8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="P8" s="43" t="n">
+      <c r="P8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="43" t="n">
+      <c r="Q8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="43" t="n">
+      <c r="R8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="S8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" s="43" t="n">
+      <c r="S8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="U8" s="43" t="n">
+      <c r="U8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="43" t="n">
+      <c r="V8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="43" t="n">
+      <c r="W8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="X8" s="43" t="n">
+      <c r="X8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Y8" s="43" t="n">
+      <c r="Y8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="43" t="n">
+      <c r="Z8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AA8" s="43" t="n">
+      <c r="AA8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AB8" s="43" t="n">
+      <c r="AB8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AC8" s="43" t="n">
+      <c r="AC8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="43" t="n">
+      <c r="AD8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AM8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN8" s="43" t="n">
+      <c r="AM8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AO8" s="43" t="n">
+      <c r="AO8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AP8" s="43" t="n">
+      <c r="AP8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AQ8" s="43" t="n">
+      <c r="AQ8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AR8" s="43" t="n">
+      <c r="AR8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AS8" s="43" t="n">
+      <c r="AS8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AT8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU8" s="43" t="n">
+      <c r="AT8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AV8" s="43" t="n">
+      <c r="AV8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AW8" s="43" t="n">
+      <c r="AW8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AX8" s="43" t="n">
+      <c r="AX8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AY8" s="43" t="n">
+      <c r="AY8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AZ8" s="43" t="n">
+      <c r="AZ8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="BA8" s="43" t="n">
+      <c r="BA8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="BB8" s="43" t="n">
+      <c r="BB8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="BC8" s="43" t="n">
+      <c r="BC8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="BD8" s="43" t="n">
+      <c r="BD8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="BE8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BG8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BH8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BI8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BK8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BN8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BP8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BQ8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BR8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BS8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BT8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BU8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BV8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BW8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BX8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BY8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BZ8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CA8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CB8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CC8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CD8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CE8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CF8" s="43" t="n">
+      <c r="BE8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BI8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BK8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BP8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BQ8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BR8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BS8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BT8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BU8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BV8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BW8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BX8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BY8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BZ8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CA8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CB8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CC8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CD8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CE8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CF8" s="48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8576,2274 +10888,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:CG13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="BL1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BP5" activeCellId="0" sqref="BP5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="85" min="4" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="41"/>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="41"/>
-      <c r="CE3" s="41"/>
-      <c r="CF3" s="41"/>
-      <c r="CG3" s="41"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27"/>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="27"/>
-      <c r="BE4" s="27"/>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="BH4" s="27"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="27"/>
-      <c r="BL4" s="27"/>
-      <c r="BM4" s="27"/>
-      <c r="BN4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="BO4" s="27"/>
-      <c r="BP4" s="27"/>
-      <c r="BQ4" s="27"/>
-      <c r="BR4" s="27"/>
-      <c r="BS4" s="27"/>
-      <c r="BT4" s="27"/>
-      <c r="BU4" s="27"/>
-      <c r="BV4" s="27"/>
-      <c r="BW4" s="27"/>
-      <c r="BX4" s="27"/>
-      <c r="BY4" s="27"/>
-      <c r="BZ4" s="27"/>
-      <c r="CA4" s="27"/>
-      <c r="CB4" s="27"/>
-      <c r="CC4" s="27"/>
-      <c r="CD4" s="27"/>
-      <c r="CE4" s="27"/>
-      <c r="CF4" s="27"/>
-      <c r="CG4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="V5" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="W5" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="X5" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y5" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z5" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA5" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB5" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC5" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD5" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE5" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF5" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG5" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH5" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI5" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ5" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK5" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL5" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM5" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN5" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO5" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP5" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ5" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR5" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS5" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT5" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU5" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV5" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW5" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX5" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY5" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ5" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA5" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB5" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="BC5" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="BD5" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="BE5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF5" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG5" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="BH5" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI5" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="BJ5" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK5" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="BL5" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="BM5" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="BN5" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="BO5" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP5" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ5" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="BR5" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="BS5" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="BT5" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="BU5" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="BV5" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="BW5" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="BX5" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="BY5" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="BZ5" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="CA5" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="CB5" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="CC5" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="CD5" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="CE5" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="CF5" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="CG5" s="30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AI6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AL6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BH6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BI6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BJ6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BK6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BL6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BM6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BO6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AI7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AL7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BH7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BI7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BJ7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BK7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BL7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BM7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BO7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AX8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AY8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AZ8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BA8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BD8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BF8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J11" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="T11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK11" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AL11" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AX11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AY11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AZ11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BA11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BD11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BF11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BM11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BO11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AL12" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BM12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN12" s="47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BO12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG12" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <autoFilter ref="B5:S5"/>
-  <mergeCells count="8">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:CG3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:AE4"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AM4:BF4"/>
-    <mergeCell ref="BG4:BM4"/>
-    <mergeCell ref="BN4:CG4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>